--- a/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.5027299236176077</v>
+        <v>0.5027299236181761</v>
       </c>
       <c r="D2">
-        <v>1.110689994911581</v>
+        <v>1.110689994910928</v>
       </c>
       <c r="E2">
-        <v>0.4964630156465546</v>
+        <v>0.496463015646647</v>
       </c>
       <c r="F2">
-        <v>23.83409743011708</v>
+        <v>23.83409743011691</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>18.07707782189456</v>
+        <v>18.07707782189448</v>
       </c>
       <c r="I2">
-        <v>0.9144569123118274</v>
+        <v>0.9144569123118202</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,25 +453,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3715453409929808</v>
+        <v>0.371545340992995</v>
       </c>
       <c r="D3">
         <v>0.8228948914344585</v>
       </c>
       <c r="E3">
-        <v>0.3654173561713776</v>
+        <v>0.3654173561712994</v>
       </c>
       <c r="F3">
-        <v>17.80339539646258</v>
+        <v>17.80339539646263</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>13.4993571854348</v>
+        <v>13.49935718543483</v>
       </c>
       <c r="I3">
-        <v>0.6745945855324251</v>
+        <v>0.6745945855324891</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3149226030409693</v>
+        <v>0.3149226030413388</v>
       </c>
       <c r="D4">
-        <v>0.6978752300214524</v>
+        <v>0.6978752300217081</v>
       </c>
       <c r="E4">
-        <v>0.309197006230626</v>
+        <v>0.3091970062305904</v>
       </c>
       <c r="F4">
-        <v>15.16053910283773</v>
+        <v>15.16053910283767</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>11.49327120923962</v>
       </c>
       <c r="I4">
-        <v>0.5712246731767365</v>
+        <v>0.5712246731767792</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -529,25 +529,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2945880525777227</v>
+        <v>0.2945880525777653</v>
       </c>
       <c r="D5">
-        <v>0.6528610699777744</v>
+        <v>0.6528610699779165</v>
       </c>
       <c r="E5">
         <v>0.2890540039888734</v>
       </c>
       <c r="F5">
-        <v>14.20639480540973</v>
+        <v>14.20639480540956</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10.76900011400852</v>
+        <v>10.76900011400838</v>
       </c>
       <c r="I5">
-        <v>0.5341222915235946</v>
+        <v>0.5341222915235875</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2913349475991538</v>
+        <v>0.2913349475991822</v>
       </c>
       <c r="D6">
-        <v>0.6456539224750486</v>
+        <v>0.6456539224753044</v>
       </c>
       <c r="E6">
-        <v>0.2858338082215326</v>
+        <v>0.2858338082214971</v>
       </c>
       <c r="F6">
-        <v>14.05351937943931</v>
+        <v>14.05351937943908</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10.65295411144868</v>
+        <v>10.65295411144857</v>
       </c>
       <c r="I6">
-        <v>0.528187595679384</v>
+        <v>0.5281875956794906</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -605,25 +605,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3146393412234119</v>
+        <v>0.3146393412242361</v>
       </c>
       <c r="D7">
-        <v>0.6972486071204003</v>
+        <v>0.6972486071205992</v>
       </c>
       <c r="E7">
-        <v>0.3089162442549735</v>
+        <v>0.3089162442550801</v>
       </c>
       <c r="F7">
-        <v>15.14726529772412</v>
+        <v>15.14726529772435</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11.48319543409934</v>
+        <v>11.48319543409951</v>
       </c>
       <c r="I7">
-        <v>0.5707077648805807</v>
+        <v>0.5707077648805665</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D8">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E8">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F8">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I8">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D9">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E9">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F9">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I9">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D10">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E10">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F10">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I10">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D11">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E11">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F11">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I11">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D12">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E12">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F12">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I12">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D13">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E13">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F13">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I13">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D14">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E14">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F14">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I14">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D15">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E15">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F15">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I15">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D16">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E16">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F16">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I16">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D17">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E17">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F17">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I17">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D18">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E18">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F18">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I18">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D19">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E19">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F19">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I19">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D20">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E20">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F20">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I20">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D21">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E21">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F21">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I21">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D22">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E22">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F22">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I22">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D23">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E23">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F23">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I23">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D24">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E24">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F24">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I24">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4487115129209656</v>
+        <v>0.4487115129206813</v>
       </c>
       <c r="D25">
-        <v>0.9925050768367214</v>
+        <v>0.9925050768372898</v>
       </c>
       <c r="E25">
-        <v>0.442360420702876</v>
+        <v>0.4423604207027978</v>
       </c>
       <c r="F25">
-        <v>21.36794709108204</v>
+        <v>21.36794709108216</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16.20505702684554</v>
+        <v>16.20505702684565</v>
       </c>
       <c r="I25">
-        <v>0.8156189736023762</v>
+        <v>0.8156189736024828</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.5027299236181761</v>
+        <v>0.5027299236176077</v>
       </c>
       <c r="D2">
-        <v>1.110689994910928</v>
+        <v>1.110689994911581</v>
       </c>
       <c r="E2">
-        <v>0.496463015646647</v>
+        <v>0.4964630156465546</v>
       </c>
       <c r="F2">
-        <v>23.83409743011691</v>
+        <v>23.83409743011708</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>18.07707782189448</v>
+        <v>18.07707782189456</v>
       </c>
       <c r="I2">
-        <v>0.9144569123118202</v>
+        <v>0.9144569123118274</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,25 +453,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.371545340992995</v>
+        <v>0.3715453409929808</v>
       </c>
       <c r="D3">
         <v>0.8228948914344585</v>
       </c>
       <c r="E3">
-        <v>0.3654173561712994</v>
+        <v>0.3654173561713776</v>
       </c>
       <c r="F3">
-        <v>17.80339539646263</v>
+        <v>17.80339539646258</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>13.49935718543483</v>
+        <v>13.4993571854348</v>
       </c>
       <c r="I3">
-        <v>0.6745945855324891</v>
+        <v>0.6745945855324251</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3149226030413388</v>
+        <v>0.3149226030409693</v>
       </c>
       <c r="D4">
-        <v>0.6978752300217081</v>
+        <v>0.6978752300214524</v>
       </c>
       <c r="E4">
-        <v>0.3091970062305904</v>
+        <v>0.309197006230626</v>
       </c>
       <c r="F4">
-        <v>15.16053910283767</v>
+        <v>15.16053910283773</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>11.49327120923962</v>
       </c>
       <c r="I4">
-        <v>0.5712246731767792</v>
+        <v>0.5712246731767365</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -529,25 +529,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2945880525777653</v>
+        <v>0.2945880525777227</v>
       </c>
       <c r="D5">
-        <v>0.6528610699779165</v>
+        <v>0.6528610699777744</v>
       </c>
       <c r="E5">
         <v>0.2890540039888734</v>
       </c>
       <c r="F5">
-        <v>14.20639480540956</v>
+        <v>14.20639480540973</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10.76900011400838</v>
+        <v>10.76900011400852</v>
       </c>
       <c r="I5">
-        <v>0.5341222915235875</v>
+        <v>0.5341222915235946</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2913349475991822</v>
+        <v>0.2913349475991538</v>
       </c>
       <c r="D6">
-        <v>0.6456539224753044</v>
+        <v>0.6456539224750486</v>
       </c>
       <c r="E6">
-        <v>0.2858338082214971</v>
+        <v>0.2858338082215326</v>
       </c>
       <c r="F6">
-        <v>14.05351937943908</v>
+        <v>14.05351937943931</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10.65295411144857</v>
+        <v>10.65295411144868</v>
       </c>
       <c r="I6">
-        <v>0.5281875956794906</v>
+        <v>0.528187595679384</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -605,25 +605,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3146393412242361</v>
+        <v>0.3146393412234119</v>
       </c>
       <c r="D7">
-        <v>0.6972486071205992</v>
+        <v>0.6972486071204003</v>
       </c>
       <c r="E7">
-        <v>0.3089162442550801</v>
+        <v>0.3089162442549735</v>
       </c>
       <c r="F7">
-        <v>15.14726529772435</v>
+        <v>15.14726529772412</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11.48319543409951</v>
+        <v>11.48319543409934</v>
       </c>
       <c r="I7">
-        <v>0.5707077648805665</v>
+        <v>0.5707077648805807</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D8">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E8">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F8">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I8">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D9">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E9">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F9">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I9">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D10">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E10">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F10">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I10">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D11">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E11">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F11">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I11">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D12">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E12">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F12">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I12">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D13">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E13">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F13">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I13">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D14">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E14">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F14">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I14">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D15">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E15">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F15">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I15">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D16">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E16">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F16">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I16">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D17">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E17">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F17">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I17">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D18">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E18">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F18">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I18">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D19">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E19">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F19">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I19">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D20">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E20">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F20">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I20">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D21">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E21">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F21">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I21">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D22">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E22">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F22">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I22">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D23">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E23">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F23">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I23">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D24">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E24">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F24">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I24">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4487115129206813</v>
+        <v>0.4487115129209656</v>
       </c>
       <c r="D25">
-        <v>0.9925050768372898</v>
+        <v>0.9925050768367214</v>
       </c>
       <c r="E25">
-        <v>0.4423604207027978</v>
+        <v>0.442360420702876</v>
       </c>
       <c r="F25">
-        <v>21.36794709108216</v>
+        <v>21.36794709108204</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16.20505702684565</v>
+        <v>16.20505702684554</v>
       </c>
       <c r="I25">
-        <v>0.8156189736024828</v>
+        <v>0.8156189736023762</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,28 +418,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.5027299236176077</v>
+        <v>0.4874750052314596</v>
       </c>
       <c r="D2">
-        <v>1.110689994911581</v>
+        <v>1.076615024444862</v>
       </c>
       <c r="E2">
-        <v>0.4964630156465546</v>
+        <v>0.4851595551996226</v>
       </c>
       <c r="F2">
-        <v>23.83409743011708</v>
+        <v>23.22674644751072</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0004750089975210357</v>
       </c>
       <c r="H2">
-        <v>18.07707782189456</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9144569123118274</v>
+        <v>17.61343345995914</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.8911257469955345</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,28 +459,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3715453409929808</v>
+        <v>0.3633584581227183</v>
       </c>
       <c r="D3">
-        <v>0.8228948914344585</v>
+        <v>0.8039579778513826</v>
       </c>
       <c r="E3">
-        <v>0.3654173561713776</v>
+        <v>0.3600409614533575</v>
       </c>
       <c r="F3">
-        <v>17.80339539646258</v>
+        <v>17.4878917576674</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0005421446720200073</v>
       </c>
       <c r="H3">
-        <v>13.4993571854348</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6745945855324251</v>
+        <v>13.25770890326586</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6627874431746008</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,28 +500,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3149226030409693</v>
+        <v>0.3087384451182373</v>
       </c>
       <c r="D4">
-        <v>0.6978752300214524</v>
+        <v>0.6832250175871195</v>
       </c>
       <c r="E4">
-        <v>0.309197006230626</v>
+        <v>0.3052371548783412</v>
       </c>
       <c r="F4">
-        <v>15.16053910283773</v>
+        <v>14.92526174750776</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0005748279675077272</v>
       </c>
       <c r="H4">
-        <v>11.49327120923962</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5712246731767365</v>
+        <v>11.31272572628245</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5623794587890387</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,28 +541,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2945880525777227</v>
+        <v>0.2890459026660608</v>
       </c>
       <c r="D5">
-        <v>0.6528610699777744</v>
+        <v>0.6395843275851405</v>
       </c>
       <c r="E5">
-        <v>0.2890540039888734</v>
+        <v>0.2855117037753558</v>
       </c>
       <c r="F5">
-        <v>14.20639480540973</v>
+        <v>13.99647291836794</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0005871931036305785</v>
       </c>
       <c r="H5">
-        <v>10.76900011400852</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5341222915235946</v>
+        <v>10.60777756044877</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5261841126817117</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,28 +582,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2913349475991538</v>
+        <v>0.2858925399852694</v>
       </c>
       <c r="D6">
-        <v>0.6456539224750486</v>
+        <v>0.6325905225035342</v>
       </c>
       <c r="E6">
-        <v>0.2858338082215326</v>
+        <v>0.2823546147078346</v>
       </c>
       <c r="F6">
-        <v>14.05351937943931</v>
+        <v>13.84751888219921</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0005892048430574119</v>
       </c>
       <c r="H6">
-        <v>10.65295411144868</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.528187595679384</v>
+        <v>10.49472054022053</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5203882791246741</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,28 +623,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3146393412234119</v>
+        <v>0.3084643616546572</v>
       </c>
       <c r="D7">
-        <v>0.6972486071204003</v>
+        <v>0.6826180331724458</v>
       </c>
       <c r="E7">
-        <v>0.3089162442549735</v>
+        <v>0.3049624972163798</v>
       </c>
       <c r="F7">
-        <v>15.14726529772412</v>
+        <v>14.91235178835433</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0005749977983757759</v>
       </c>
       <c r="H7">
-        <v>11.48319543409934</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5707077648805807</v>
+        <v>11.30292718832612</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.561875674742339</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,28 +664,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D8">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E8">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F8">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H8">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,28 +705,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D9">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E9">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F9">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H9">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,28 +746,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D10">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E10">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F10">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H10">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,28 +787,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D11">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E11">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F11">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H11">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,28 +828,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D12">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E12">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F12">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H12">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,28 +869,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D13">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E13">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F13">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H13">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,28 +910,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D14">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E14">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F14">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H14">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,28 +951,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D15">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E15">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F15">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H15">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,28 +992,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D16">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E16">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F16">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H16">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,28 +1033,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D17">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E17">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F17">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H17">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,28 +1074,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D18">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E18">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F18">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H18">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,28 +1115,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D19">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E19">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F19">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H19">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,28 +1156,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D20">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E20">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F20">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H20">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D21">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E21">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F21">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H21">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,28 +1238,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D22">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E22">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F22">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H22">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,28 +1279,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D23">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E23">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F23">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H23">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,28 +1320,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D24">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E24">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F24">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H24">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4487115129209656</v>
+        <v>0.4369736503246884</v>
       </c>
       <c r="D25">
-        <v>0.9925050768367214</v>
+        <v>0.965963336491285</v>
       </c>
       <c r="E25">
-        <v>0.442360420702876</v>
+        <v>0.4341436774885068</v>
       </c>
       <c r="F25">
-        <v>21.36794709108204</v>
+        <v>20.90706165048243</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0005012688513579948</v>
       </c>
       <c r="H25">
-        <v>16.20505702684554</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8156189736023762</v>
+        <v>15.85278263325165</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7981800575429361</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4874750052314596</v>
+        <v>0.5204058213202529</v>
       </c>
       <c r="D2">
-        <v>1.076615024444862</v>
+        <v>0.5625318893426083</v>
       </c>
       <c r="E2">
-        <v>0.4851595551996226</v>
+        <v>0.2355138742084293</v>
       </c>
       <c r="F2">
-        <v>23.22674644751072</v>
+        <v>9.923687074359037</v>
       </c>
       <c r="G2">
-        <v>0.0004750089975210357</v>
+        <v>0.0005848706492992662</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.61343345995914</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.8911257469955345</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>25.20004037099437</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2194326630824506</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3633584581227183</v>
+        <v>0.4224742552620739</v>
       </c>
       <c r="D3">
-        <v>0.8039579778513826</v>
+        <v>0.3926154333811809</v>
       </c>
       <c r="E3">
-        <v>0.3600409614533575</v>
+        <v>0.1900874541150799</v>
       </c>
       <c r="F3">
-        <v>17.4878917576674</v>
+        <v>7.402968724801923</v>
       </c>
       <c r="G3">
-        <v>0.0005421446720200073</v>
+        <v>0.0006470626191929179</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.25770890326586</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6627874431746008</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.41318735919634</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.176185602665285</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3087384451182373</v>
+        <v>0.375595833138874</v>
       </c>
       <c r="D4">
-        <v>0.6832250175871195</v>
+        <v>0.3249122316635038</v>
       </c>
       <c r="E4">
-        <v>0.3052371548783412</v>
+        <v>0.1683569712643944</v>
       </c>
       <c r="F4">
-        <v>14.92526174750776</v>
+        <v>6.293987974081944</v>
       </c>
       <c r="G4">
-        <v>0.0005748279675077272</v>
+        <v>0.0006799676069000294</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.31272572628245</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5623794587890387</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.94322000293693</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1555121320140884</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2890459026660608</v>
+        <v>0.3584160663562272</v>
       </c>
       <c r="D5">
-        <v>0.6395843275851405</v>
+        <v>0.3025576073928704</v>
       </c>
       <c r="E5">
-        <v>0.2855117037753558</v>
+        <v>0.1603935128508986</v>
       </c>
       <c r="F5">
-        <v>13.99647291836794</v>
+        <v>5.905321990710917</v>
       </c>
       <c r="G5">
-        <v>0.0005871931036305785</v>
+        <v>0.0006926787594696281</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.60777756044877</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5261841126817117</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.00474108811716</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.147936576797683</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2858925399852694</v>
+        <v>0.3556559280671934</v>
       </c>
       <c r="D6">
-        <v>0.6325905225035342</v>
+        <v>0.2990961203071549</v>
       </c>
       <c r="E6">
-        <v>0.2823546147078346</v>
+        <v>0.1591140404270632</v>
       </c>
       <c r="F6">
-        <v>13.84751888219921</v>
+        <v>5.843819627212184</v>
       </c>
       <c r="G6">
-        <v>0.0005892048430574119</v>
+        <v>0.0006947578901254026</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.49472054022053</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5203882791246741</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.85216835142018</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1467194073766862</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3084643616546572</v>
+        <v>0.3753574936635857</v>
       </c>
       <c r="D7">
-        <v>0.6826180331724458</v>
+        <v>0.3245927319388784</v>
       </c>
       <c r="E7">
-        <v>0.3049624972163798</v>
+        <v>0.1682464941129744</v>
       </c>
       <c r="F7">
-        <v>14.91235178835433</v>
+        <v>6.288528122360958</v>
       </c>
       <c r="G7">
-        <v>0.0005749977983757759</v>
+        <v>0.000680141347807467</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.30292718832612</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.561875674742339</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.93032875805903</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1554070366253484</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D8">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E8">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F8">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G8">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D9">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E9">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F9">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G9">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D10">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E10">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F10">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G10">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D11">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E11">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F11">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G11">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D12">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E12">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F12">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G12">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D13">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E13">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F13">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G13">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D14">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E14">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F14">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G14">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D15">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E15">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F15">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G15">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D16">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E16">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F16">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G16">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D17">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E17">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F17">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G17">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D18">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E18">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F18">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G18">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D19">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E19">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F19">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G19">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D20">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E20">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F20">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G20">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D21">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E21">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F21">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G21">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D22">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E22">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F22">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G22">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D23">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E23">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F23">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G23">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D24">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E24">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F24">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G24">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4369736503246884</v>
+        <v>0.4825598468215162</v>
       </c>
       <c r="D25">
-        <v>0.965963336491285</v>
+        <v>0.4925598878331385</v>
       </c>
       <c r="E25">
-        <v>0.4341436774885068</v>
+        <v>0.2179513707728162</v>
       </c>
       <c r="F25">
-        <v>20.90706165048243</v>
+        <v>8.91892173966076</v>
       </c>
       <c r="G25">
-        <v>0.0005012688513579948</v>
+        <v>0.0006080036149748364</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.85278263325165</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7981800575429361</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>23.40547890122258</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.202705781374739</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.5204058213202529</v>
+        <v>0.2118183753330811</v>
       </c>
       <c r="D2">
-        <v>0.5625318893426083</v>
+        <v>0.03092264755255769</v>
       </c>
       <c r="E2">
-        <v>0.2355138742084293</v>
+        <v>0.05265059179921039</v>
       </c>
       <c r="F2">
-        <v>9.923687074359037</v>
+        <v>1.663612776127934</v>
       </c>
       <c r="G2">
-        <v>0.0005848706492992662</v>
+        <v>1.405584598658933</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.9051063290190484</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08937508846538122</v>
       </c>
       <c r="K2">
-        <v>25.20004037099437</v>
+        <v>3.468671825284957</v>
       </c>
       <c r="L2">
-        <v>0.2194326630824506</v>
+        <v>0.03394359432900185</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7374773629961879</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.022829701371894</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4224742552620739</v>
+        <v>0.1962003369408905</v>
       </c>
       <c r="D3">
-        <v>0.3926154333811809</v>
+        <v>0.02801907129128978</v>
       </c>
       <c r="E3">
-        <v>0.1900874541150799</v>
+        <v>0.05108729505100484</v>
       </c>
       <c r="F3">
-        <v>7.402968724801923</v>
+        <v>1.591236936793862</v>
       </c>
       <c r="G3">
-        <v>0.0006470626191929179</v>
+        <v>1.336272102268779</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.8827671737640799</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08927281020898548</v>
       </c>
       <c r="K3">
-        <v>20.41318735919634</v>
+        <v>3.028634284547252</v>
       </c>
       <c r="L3">
-        <v>0.176185602665285</v>
+        <v>0.0342070880894827</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6517547656880538</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.082455080170397</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.375595833138874</v>
+        <v>0.1868938139300269</v>
       </c>
       <c r="D4">
-        <v>0.3249122316635038</v>
+        <v>0.02624978372969267</v>
       </c>
       <c r="E4">
-        <v>0.1683569712643944</v>
+        <v>0.05018457674391819</v>
       </c>
       <c r="F4">
-        <v>6.293987974081944</v>
+        <v>1.550080522045263</v>
       </c>
       <c r="G4">
-        <v>0.0006799676069000294</v>
+        <v>1.296818034806279</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.8707666067653435</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.08933767950816929</v>
       </c>
       <c r="K4">
-        <v>17.94322000293693</v>
+        <v>2.761264047355894</v>
       </c>
       <c r="L4">
-        <v>0.1555121320140884</v>
+        <v>0.03438473098109895</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5998080490433111</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.120525055626483</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3584160663562272</v>
+        <v>0.1831676437775229</v>
       </c>
       <c r="D5">
-        <v>0.3025576073928704</v>
+        <v>0.02553185733514596</v>
       </c>
       <c r="E5">
-        <v>0.1603935128508986</v>
+        <v>0.0498304692890752</v>
       </c>
       <c r="F5">
-        <v>5.905321990710917</v>
+        <v>1.534082856813072</v>
       </c>
       <c r="G5">
-        <v>0.0006926787594696281</v>
+        <v>1.281468550460417</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8662837282333271</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.08939493200863069</v>
       </c>
       <c r="K5">
-        <v>17.00474108811716</v>
+        <v>2.652928615995421</v>
       </c>
       <c r="L5">
-        <v>0.147936576797683</v>
+        <v>0.03446108119590008</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5787942162663384</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.136396351036258</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3556559280671934</v>
+        <v>0.1825527854359308</v>
       </c>
       <c r="D6">
-        <v>0.2990961203071549</v>
+        <v>0.02541282275537782</v>
       </c>
       <c r="E6">
-        <v>0.1591140404270632</v>
+        <v>0.04977248376801491</v>
       </c>
       <c r="F6">
-        <v>5.843819627212184</v>
+        <v>1.53147175698868</v>
       </c>
       <c r="G6">
-        <v>0.0006947578901254026</v>
+        <v>1.278962312435553</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8655632877139823</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.08940626410226571</v>
       </c>
       <c r="K6">
-        <v>16.85216835142018</v>
+        <v>2.634974607506052</v>
       </c>
       <c r="L6">
-        <v>0.1467194073766862</v>
+        <v>0.03447399745611346</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5753137382670559</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.139053090129874</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3753574936635857</v>
+        <v>0.1868432991753508</v>
       </c>
       <c r="D7">
-        <v>0.3245927319388784</v>
+        <v>0.02624008949418055</v>
       </c>
       <c r="E7">
-        <v>0.1682464941129744</v>
+        <v>0.05017974620432319</v>
       </c>
       <c r="F7">
-        <v>6.288528122360958</v>
+        <v>1.549861704024025</v>
       </c>
       <c r="G7">
-        <v>0.000680141347807467</v>
+        <v>1.296608143573692</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.8707045298788216</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08933832849129431</v>
       </c>
       <c r="K7">
-        <v>17.93032875805903</v>
+        <v>2.759800598419986</v>
       </c>
       <c r="L7">
-        <v>0.1554070366253484</v>
+        <v>0.03438574467056554</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5995240448811003</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.120737666259101</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4825598468215162</v>
+        <v>0.2063715079499815</v>
       </c>
       <c r="D8">
-        <v>0.4925598878331385</v>
+        <v>0.02991848178012546</v>
       </c>
       <c r="E8">
-        <v>0.2179513707728162</v>
+        <v>0.0520993221518129</v>
       </c>
       <c r="F8">
-        <v>8.91892173966076</v>
+        <v>1.637944134034839</v>
       </c>
       <c r="G8">
-        <v>0.0006080036149748364</v>
+        <v>1.381008855789773</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.8970327164132641</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08931252375553811</v>
       </c>
       <c r="K8">
-        <v>23.40547890122258</v>
+        <v>3.316307886927177</v>
       </c>
       <c r="L8">
-        <v>0.202705781374739</v>
+        <v>0.03403113820574255</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.707766335157018</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.043079583238505</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4825598468215162</v>
+        <v>0.2471501866685202</v>
       </c>
       <c r="D9">
-        <v>0.4925598878331385</v>
+        <v>0.03725572158867152</v>
       </c>
       <c r="E9">
-        <v>0.2179513707728162</v>
+        <v>0.05634723053920077</v>
       </c>
       <c r="F9">
-        <v>8.91892173966076</v>
+        <v>1.839242575630109</v>
       </c>
       <c r="G9">
-        <v>0.0006080036149748364</v>
+        <v>1.57370190875568</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.9634505379833058</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.09033776729352994</v>
       </c>
       <c r="K9">
-        <v>23.40547890122258</v>
+        <v>4.434288339434147</v>
       </c>
       <c r="L9">
-        <v>0.202705781374739</v>
+        <v>0.03346299247459683</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.9263703874177907</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.9028393514652118</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4825598468215162</v>
+        <v>0.278988079044268</v>
       </c>
       <c r="D10">
-        <v>0.4925598878331385</v>
+        <v>0.04274817279143406</v>
       </c>
       <c r="E10">
-        <v>0.2179513707728162</v>
+        <v>0.05980898677812263</v>
       </c>
       <c r="F10">
-        <v>8.91892173966076</v>
+        <v>2.008394251345408</v>
       </c>
       <c r="G10">
-        <v>0.0006080036149748364</v>
+        <v>1.73573465905713</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.023052049407823</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.09184249027745039</v>
       </c>
       <c r="K10">
-        <v>23.40547890122258</v>
+        <v>5.27859914707517</v>
       </c>
       <c r="L10">
-        <v>0.202705781374739</v>
+        <v>0.03312538942836696</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.092208023616216</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.8078495931530245</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4825598468215162</v>
+        <v>0.2939697081190218</v>
       </c>
       <c r="D11">
-        <v>0.4925598878331385</v>
+        <v>0.04527558731992798</v>
       </c>
       <c r="E11">
-        <v>0.2179513707728162</v>
+        <v>0.06146921539630057</v>
       </c>
       <c r="F11">
-        <v>8.91892173966076</v>
+        <v>2.090915820280415</v>
       </c>
       <c r="G11">
-        <v>0.0006080036149748364</v>
+        <v>1.814857361525839</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.052957425356084</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.09271396586283132</v>
       </c>
       <c r="K11">
-        <v>23.40547890122258</v>
+        <v>5.669339403048696</v>
       </c>
       <c r="L11">
-        <v>0.202705781374739</v>
+        <v>0.0329897214596544</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.16912667978896</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.7665577824976797</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4825598468215162</v>
+        <v>0.2997228405507428</v>
       </c>
       <c r="D12">
-        <v>0.4925598878331385</v>
+        <v>0.04623742172183398</v>
       </c>
       <c r="E12">
-        <v>0.2179513707728162</v>
+        <v>0.06211123972396138</v>
       </c>
       <c r="F12">
-        <v>8.91892173966076</v>
+        <v>2.123054911551023</v>
       </c>
       <c r="G12">
-        <v>0.0006080036149748364</v>
+        <v>1.845687604527029</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.064724880630138</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.09307307469179449</v>
       </c>
       <c r="K12">
-        <v>23.40547890122258</v>
+        <v>5.818413795862568</v>
       </c>
       <c r="L12">
-        <v>0.202705781374739</v>
+        <v>0.03294097973597943</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.198497698890137</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.7512142619601079</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4825598468215162</v>
+        <v>0.2984801061025451</v>
       </c>
       <c r="D13">
-        <v>0.4925598878331385</v>
+        <v>0.04603005149680683</v>
       </c>
       <c r="E13">
-        <v>0.2179513707728162</v>
+        <v>0.06197235763342945</v>
       </c>
       <c r="F13">
-        <v>8.91892173966076</v>
+        <v>2.116092093954833</v>
       </c>
       <c r="G13">
-        <v>0.0006080036149748364</v>
+        <v>1.839007616368832</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.062170142820889</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.0929944022286513</v>
       </c>
       <c r="K13">
-        <v>23.40547890122258</v>
+        <v>5.78625601885642</v>
       </c>
       <c r="L13">
-        <v>0.202705781374739</v>
+        <v>0.03295135905035274</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.19216076176329</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.7545054559262994</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4825598468215162</v>
+        <v>0.2944413699891015</v>
       </c>
       <c r="D14">
-        <v>0.4925598878331385</v>
+        <v>0.04535461895278559</v>
       </c>
       <c r="E14">
-        <v>0.2179513707728162</v>
+        <v>0.06152176158888167</v>
       </c>
       <c r="F14">
-        <v>8.91892173966076</v>
+        <v>2.093541546810528</v>
       </c>
       <c r="G14">
-        <v>0.0006080036149748364</v>
+        <v>1.817375836529834</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.053916411192063</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.09274291325498751</v>
       </c>
       <c r="K14">
-        <v>23.40547890122258</v>
+        <v>5.681580678605428</v>
       </c>
       <c r="L14">
-        <v>0.202705781374739</v>
+        <v>0.03298565832840961</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.171537979998078</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.7652894915829886</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4825598468215162</v>
+        <v>0.2919781935723336</v>
       </c>
       <c r="D15">
-        <v>0.4925598878331385</v>
+        <v>0.04494153572591131</v>
       </c>
       <c r="E15">
-        <v>0.2179513707728162</v>
+        <v>0.06124752742262629</v>
       </c>
       <c r="F15">
-        <v>8.91892173966076</v>
+        <v>2.079847367676038</v>
       </c>
       <c r="G15">
-        <v>0.0006080036149748364</v>
+        <v>1.804241635420027</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.048919748545046</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.09259272828369802</v>
       </c>
       <c r="K15">
-        <v>23.40547890122258</v>
+        <v>5.617613287834786</v>
       </c>
       <c r="L15">
-        <v>0.202705781374739</v>
+        <v>0.03300701232372738</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.158938629464942</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.7719336822434482</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4825598468215162</v>
+        <v>0.2780197098079782</v>
       </c>
       <c r="D16">
-        <v>0.4925598878331385</v>
+        <v>0.04258363150155731</v>
       </c>
       <c r="E16">
-        <v>0.2179513707728162</v>
+        <v>0.0597022934032303</v>
       </c>
       <c r="F16">
-        <v>8.91892173966076</v>
+        <v>2.003120787354419</v>
       </c>
       <c r="G16">
-        <v>0.0006080036149748364</v>
+        <v>1.730680197464466</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.021157294430964</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.09178948374125895</v>
       </c>
       <c r="K16">
-        <v>23.40547890122258</v>
+        <v>5.253209983818977</v>
       </c>
       <c r="L16">
-        <v>0.202705781374739</v>
+        <v>0.03313462077845308</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.087213534665381</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.8105881302097586</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4825598468215162</v>
+        <v>0.269589899475335</v>
       </c>
       <c r="D17">
-        <v>0.4925598878331385</v>
+        <v>0.04114493806003594</v>
       </c>
       <c r="E17">
-        <v>0.2179513707728162</v>
+        <v>0.05877694061706151</v>
       </c>
       <c r="F17">
-        <v>8.91892173966076</v>
+        <v>1.957539216501701</v>
       </c>
       <c r="G17">
-        <v>0.0006080036149748364</v>
+        <v>1.687000115036909</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.004869254153732</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.09134611202315313</v>
       </c>
       <c r="K17">
-        <v>23.40547890122258</v>
+        <v>5.031469160554423</v>
       </c>
       <c r="L17">
-        <v>0.202705781374739</v>
+        <v>0.03321753009097517</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.043612219650051</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.8348044161560901</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4825598468215162</v>
+        <v>0.2647876687884718</v>
       </c>
       <c r="D18">
-        <v>0.4925598878331385</v>
+        <v>0.0403201169915306</v>
       </c>
       <c r="E18">
-        <v>0.2179513707728162</v>
+        <v>0.058252677679409</v>
       </c>
       <c r="F18">
-        <v>8.91892173966076</v>
+        <v>1.931840713374754</v>
       </c>
       <c r="G18">
-        <v>0.0006080036149748364</v>
+        <v>1.66238010917931</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.9957609151032329</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.09110854956267289</v>
       </c>
       <c r="K18">
-        <v>23.40547890122258</v>
+        <v>4.904546498850664</v>
       </c>
       <c r="L18">
-        <v>0.202705781374739</v>
+        <v>0.03326689920329606</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.018671003068604</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.8489125561368898</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4825598468215162</v>
+        <v>0.2631694426151938</v>
       </c>
       <c r="D19">
-        <v>0.4925598878331385</v>
+        <v>0.04004128922560568</v>
       </c>
       <c r="E19">
-        <v>0.2179513707728162</v>
+        <v>0.05807651092893451</v>
       </c>
       <c r="F19">
-        <v>8.91892173966076</v>
+        <v>1.92322619708429</v>
       </c>
       <c r="G19">
-        <v>0.0006080036149748364</v>
+        <v>1.65412810829929</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.9927204693202043</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.09103104877153712</v>
       </c>
       <c r="K19">
-        <v>23.40547890122258</v>
+        <v>4.861674223776333</v>
       </c>
       <c r="L19">
-        <v>0.202705781374739</v>
+        <v>0.03328390196427033</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.010248989959827</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.853719688242804</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4825598468215162</v>
+        <v>0.2704824106018577</v>
       </c>
       <c r="D20">
-        <v>0.4925598878331385</v>
+        <v>0.04129780816603557</v>
       </c>
       <c r="E20">
-        <v>0.2179513707728162</v>
+        <v>0.05887461333640864</v>
       </c>
       <c r="F20">
-        <v>8.91892173966076</v>
+        <v>1.962337145283897</v>
       </c>
       <c r="G20">
-        <v>0.0006080036149748364</v>
+        <v>1.6915971902759</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.006575936981989</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.09139148803588526</v>
       </c>
       <c r="K20">
-        <v>23.40547890122258</v>
+        <v>5.055008962824616</v>
       </c>
       <c r="L20">
-        <v>0.202705781374739</v>
+        <v>0.03320852979284705</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.048239249471628</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.8322078500259469</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4825598468215162</v>
+        <v>0.2956254059851062</v>
       </c>
       <c r="D21">
-        <v>0.4925598878331385</v>
+        <v>0.04555287557710841</v>
       </c>
       <c r="E21">
-        <v>0.2179513707728162</v>
+        <v>0.06165374191766304</v>
       </c>
       <c r="F21">
-        <v>8.91892173966076</v>
+        <v>2.100140284830346</v>
       </c>
       <c r="G21">
-        <v>0.0006080036149748364</v>
+        <v>1.823705289886874</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.056328359455335</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.09281597311137446</v>
       </c>
       <c r="K21">
-        <v>23.40547890122258</v>
+        <v>5.712294959970563</v>
       </c>
       <c r="L21">
-        <v>0.202705781374739</v>
+        <v>0.03297551185144609</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.177588516522476</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.76211387031538</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4825598468215162</v>
+        <v>0.3125280554766903</v>
       </c>
       <c r="D22">
-        <v>0.4925598878331385</v>
+        <v>0.04836187042617723</v>
       </c>
       <c r="E22">
-        <v>0.2179513707728162</v>
+        <v>0.06354833251877423</v>
       </c>
       <c r="F22">
-        <v>8.91892173966076</v>
+        <v>2.195437908597413</v>
       </c>
       <c r="G22">
-        <v>0.0006080036149748364</v>
+        <v>1.915154722993378</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.091448677763452</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.09391777170365145</v>
       </c>
       <c r="K22">
-        <v>23.40547890122258</v>
+        <v>6.148419043677507</v>
       </c>
       <c r="L22">
-        <v>0.202705781374739</v>
+        <v>0.03283859922784771</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.263562395482523</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7180190940066282</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4825598468215162</v>
+        <v>0.303460819234175</v>
       </c>
       <c r="D23">
-        <v>0.4925598878331385</v>
+        <v>0.0468598706087846</v>
       </c>
       <c r="E23">
-        <v>0.2179513707728162</v>
+        <v>0.06252961970159276</v>
       </c>
       <c r="F23">
-        <v>8.91892173966076</v>
+        <v>2.144065045296614</v>
       </c>
       <c r="G23">
-        <v>0.0006080036149748364</v>
+        <v>1.865846773788405</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.072451173177797</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.09331329846877168</v>
       </c>
       <c r="K23">
-        <v>23.40547890122258</v>
+        <v>5.914997616488165</v>
       </c>
       <c r="L23">
-        <v>0.202705781374739</v>
+        <v>0.03291024402551201</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.217533948607681</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7413903144918041</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4825598468215162</v>
+        <v>0.270078769324769</v>
       </c>
       <c r="D24">
-        <v>0.4925598878331385</v>
+        <v>0.0412286884626667</v>
       </c>
       <c r="E24">
-        <v>0.2179513707728162</v>
+        <v>0.05883043148565115</v>
       </c>
       <c r="F24">
-        <v>8.91892173966076</v>
+        <v>1.960166429223378</v>
       </c>
       <c r="G24">
-        <v>0.0006080036149748364</v>
+        <v>1.689517325965596</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.005803551766547</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.09137091970143629</v>
       </c>
       <c r="K24">
-        <v>23.40547890122258</v>
+        <v>5.044364888061523</v>
       </c>
       <c r="L24">
-        <v>0.202705781374739</v>
+        <v>0.03321259352598194</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.046146979878522</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.8333811798624966</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4825598468215162</v>
+        <v>0.2358169560167767</v>
       </c>
       <c r="D25">
-        <v>0.4925598878331385</v>
+        <v>0.03525499186758907</v>
       </c>
       <c r="E25">
-        <v>0.2179513707728162</v>
+        <v>0.05514177983316237</v>
       </c>
       <c r="F25">
-        <v>8.91892173966076</v>
+        <v>1.781351960565189</v>
       </c>
       <c r="G25">
-        <v>0.0006080036149748364</v>
+        <v>1.518283028776665</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.9437247792965309</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.08993589086070841</v>
       </c>
       <c r="K25">
-        <v>23.40547890122258</v>
+        <v>4.12833794658286</v>
       </c>
       <c r="L25">
-        <v>0.202705781374739</v>
+        <v>0.03360285413373365</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.8664200690089103</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.9394200601111375</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2118183753330811</v>
+        <v>0.3586222133355363</v>
       </c>
       <c r="D2">
-        <v>0.03092264755255769</v>
+        <v>0.05906290126593206</v>
       </c>
       <c r="E2">
-        <v>0.05265059179921039</v>
+        <v>0.1328761516594792</v>
       </c>
       <c r="F2">
-        <v>1.663612776127934</v>
+        <v>3.198037250614647</v>
       </c>
       <c r="G2">
-        <v>1.405584598658933</v>
+        <v>2.470281004012463</v>
       </c>
       <c r="H2">
-        <v>0.9051063290190484</v>
+        <v>2.005870798417163</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08937508846538122</v>
+        <v>0.2391051643663751</v>
       </c>
       <c r="K2">
-        <v>3.468671825284957</v>
+        <v>2.403337428066493</v>
       </c>
       <c r="L2">
-        <v>0.03394359432900185</v>
+        <v>0.1061377151953922</v>
       </c>
       <c r="M2">
-        <v>0.7374773629961879</v>
+        <v>0.7142530321728202</v>
       </c>
       <c r="N2">
-        <v>1.022829701371894</v>
+        <v>2.16557970365297</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1962003369408905</v>
+        <v>0.3567354971009422</v>
       </c>
       <c r="D3">
-        <v>0.02801907129128978</v>
+        <v>0.05841900120496035</v>
       </c>
       <c r="E3">
-        <v>0.05108729505100484</v>
+        <v>0.1331146532641405</v>
       </c>
       <c r="F3">
-        <v>1.591236936793862</v>
+        <v>3.202799337409928</v>
       </c>
       <c r="G3">
-        <v>1.336272102268779</v>
+        <v>2.472147669621577</v>
       </c>
       <c r="H3">
-        <v>0.8827671737640799</v>
+        <v>2.013821287754226</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08927281020898548</v>
+        <v>0.2403925642453224</v>
       </c>
       <c r="K3">
-        <v>3.028634284547252</v>
+        <v>2.293932862647125</v>
       </c>
       <c r="L3">
-        <v>0.0342070880894827</v>
+        <v>0.1064719773979412</v>
       </c>
       <c r="M3">
-        <v>0.6517547656880538</v>
+        <v>0.6948529172636455</v>
       </c>
       <c r="N3">
-        <v>1.082455080170397</v>
+        <v>2.189582963661733</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1868938139300269</v>
+        <v>0.3557323763221945</v>
       </c>
       <c r="D4">
-        <v>0.02624978372969267</v>
+        <v>0.05803562181423771</v>
       </c>
       <c r="E4">
-        <v>0.05018457674391819</v>
+        <v>0.1333013751575702</v>
       </c>
       <c r="F4">
-        <v>1.550080522045263</v>
+        <v>3.207321764178047</v>
       </c>
       <c r="G4">
-        <v>1.296818034806279</v>
+        <v>2.474676461168073</v>
       </c>
       <c r="H4">
-        <v>0.8707666067653435</v>
+        <v>2.019602237705172</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08933767950816929</v>
+        <v>0.2412636879096937</v>
       </c>
       <c r="K4">
-        <v>2.761264047355894</v>
+        <v>2.227809643418453</v>
       </c>
       <c r="L4">
-        <v>0.03438473098109895</v>
+        <v>0.106691783417495</v>
       </c>
       <c r="M4">
-        <v>0.5998080490433111</v>
+        <v>0.6832563537928635</v>
       </c>
       <c r="N4">
-        <v>1.120525055626483</v>
+        <v>2.205049848110636</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1831676437775229</v>
+        <v>0.3553626942099584</v>
       </c>
       <c r="D5">
-        <v>0.02553185733514596</v>
+        <v>0.05788242739141225</v>
       </c>
       <c r="E5">
-        <v>0.0498304692890752</v>
+        <v>0.1333876143550778</v>
       </c>
       <c r="F5">
-        <v>1.534082856813072</v>
+        <v>3.209566357754198</v>
       </c>
       <c r="G5">
-        <v>1.281468550460417</v>
+        <v>2.476054137689005</v>
       </c>
       <c r="H5">
-        <v>0.8662837282333271</v>
+        <v>2.022184089318699</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08939493200863069</v>
+        <v>0.2416389738834717</v>
       </c>
       <c r="K5">
-        <v>2.652928615995421</v>
+        <v>2.201129000290138</v>
       </c>
       <c r="L5">
-        <v>0.03446108119590008</v>
+        <v>0.106785029259461</v>
       </c>
       <c r="M5">
-        <v>0.5787942162663384</v>
+        <v>0.6786100943881834</v>
       </c>
       <c r="N5">
-        <v>1.136396351036258</v>
+        <v>2.211535968366158</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1825527854359308</v>
+        <v>0.3553036713423978</v>
       </c>
       <c r="D6">
-        <v>0.02541282275537782</v>
+        <v>0.05785717363396614</v>
       </c>
       <c r="E6">
-        <v>0.04977248376801491</v>
+        <v>0.133402547831091</v>
       </c>
       <c r="F6">
-        <v>1.53147175698868</v>
+        <v>3.209963322415675</v>
       </c>
       <c r="G6">
-        <v>1.278962312435553</v>
+        <v>2.476303853602275</v>
       </c>
       <c r="H6">
-        <v>0.8655632877139823</v>
+        <v>2.022626455690016</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08940626410226571</v>
+        <v>0.2417025161003927</v>
       </c>
       <c r="K6">
-        <v>2.634974607506052</v>
+        <v>2.196714731601048</v>
       </c>
       <c r="L6">
-        <v>0.03447399745611346</v>
+        <v>0.1068007347994557</v>
       </c>
       <c r="M6">
-        <v>0.5753137382670559</v>
+        <v>0.6778433895372018</v>
       </c>
       <c r="N6">
-        <v>1.139053090129874</v>
+        <v>2.212624050416384</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1868432991753508</v>
+        <v>0.3557272323028542</v>
       </c>
       <c r="D7">
-        <v>0.02624008949418055</v>
+        <v>0.05803354345685108</v>
       </c>
       <c r="E7">
-        <v>0.05017974620432319</v>
+        <v>0.1333024970923855</v>
       </c>
       <c r="F7">
-        <v>1.549861704024025</v>
+        <v>3.207350409601275</v>
       </c>
       <c r="G7">
-        <v>1.296608143573692</v>
+        <v>2.474693635980813</v>
       </c>
       <c r="H7">
-        <v>0.8707045298788216</v>
+        <v>2.019636142226403</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08933832849129431</v>
+        <v>0.2412686669503614</v>
       </c>
       <c r="K7">
-        <v>2.759800598419986</v>
+        <v>2.227448744644136</v>
       </c>
       <c r="L7">
-        <v>0.03438574467056554</v>
+        <v>0.1066930260781218</v>
       </c>
       <c r="M7">
-        <v>0.5995240448811003</v>
+        <v>0.6831933708492954</v>
       </c>
       <c r="N7">
-        <v>1.120737666259101</v>
+        <v>2.20513658030135</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2063715079499815</v>
+        <v>0.3579394562028284</v>
       </c>
       <c r="D8">
-        <v>0.02991848178012546</v>
+        <v>0.05883841250115651</v>
       </c>
       <c r="E8">
-        <v>0.0520993221518129</v>
+        <v>0.1329500382234219</v>
       </c>
       <c r="F8">
-        <v>1.637944134034839</v>
+        <v>3.199347272398938</v>
       </c>
       <c r="G8">
-        <v>1.381008855789773</v>
+        <v>2.470637348977263</v>
       </c>
       <c r="H8">
-        <v>0.8970327164132641</v>
+        <v>2.00842542633508</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08931252375553811</v>
+        <v>0.2395323285694211</v>
       </c>
       <c r="K8">
-        <v>3.316307886927177</v>
+        <v>2.365396824423669</v>
       </c>
       <c r="L8">
-        <v>0.03403113820574255</v>
+        <v>0.1062499512506818</v>
       </c>
       <c r="M8">
-        <v>0.707766335157018</v>
+        <v>0.7074985541813561</v>
       </c>
       <c r="N8">
-        <v>1.043079583238505</v>
+        <v>2.173704757732803</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2471501866685202</v>
+        <v>0.3635090599126158</v>
       </c>
       <c r="D9">
-        <v>0.03725572158867152</v>
+        <v>0.06051086411927287</v>
       </c>
       <c r="E9">
-        <v>0.05634723053920077</v>
+        <v>0.1325776941186483</v>
       </c>
       <c r="F9">
-        <v>1.839242575630109</v>
+        <v>3.196352801242128</v>
       </c>
       <c r="G9">
-        <v>1.57370190875568</v>
+        <v>2.473679664158226</v>
       </c>
       <c r="H9">
-        <v>0.9634505379833058</v>
+        <v>1.993581634078851</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09033776729352994</v>
+        <v>0.2367667435627823</v>
       </c>
       <c r="K9">
-        <v>4.434288339434147</v>
+        <v>2.644244503605535</v>
       </c>
       <c r="L9">
-        <v>0.03346299247459683</v>
+        <v>0.1054962283342924</v>
       </c>
       <c r="M9">
-        <v>0.9263703874177907</v>
+        <v>0.75765730650172</v>
       </c>
       <c r="N9">
-        <v>0.9028393514652118</v>
+        <v>2.117849670806686</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.278988079044268</v>
+        <v>0.3683513434346111</v>
       </c>
       <c r="D10">
-        <v>0.04274817279143406</v>
+        <v>0.06179589966745169</v>
       </c>
       <c r="E10">
-        <v>0.05980898677812263</v>
+        <v>0.1324975529445034</v>
       </c>
       <c r="F10">
-        <v>2.008394251345408</v>
+        <v>3.201922655869055</v>
       </c>
       <c r="G10">
-        <v>1.73573465905713</v>
+        <v>2.482659249640591</v>
       </c>
       <c r="H10">
-        <v>1.023052049407823</v>
+        <v>1.987037441788772</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09184249027745039</v>
+        <v>0.2351239295648213</v>
       </c>
       <c r="K10">
-        <v>5.27859914707517</v>
+        <v>2.854201909799542</v>
       </c>
       <c r="L10">
-        <v>0.03312538942836696</v>
+        <v>0.1050120605469562</v>
       </c>
       <c r="M10">
-        <v>1.092208023616216</v>
+        <v>0.7960297043641873</v>
       </c>
       <c r="N10">
-        <v>0.8078495931530245</v>
+        <v>2.080336993735539</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2939697081190218</v>
+        <v>0.3707171350468172</v>
       </c>
       <c r="D11">
-        <v>0.04527558731992798</v>
+        <v>0.06239250187638135</v>
       </c>
       <c r="E11">
-        <v>0.06146921539630057</v>
+        <v>0.1325029046140322</v>
       </c>
       <c r="F11">
-        <v>2.090915820280415</v>
+        <v>3.206150174743271</v>
       </c>
       <c r="G11">
-        <v>1.814857361525839</v>
+        <v>2.488217933320499</v>
       </c>
       <c r="H11">
-        <v>1.052957425356084</v>
+        <v>1.985009464268245</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09271396586283132</v>
+        <v>0.2344609142977454</v>
       </c>
       <c r="K11">
-        <v>5.669339403048696</v>
+        <v>2.950825500876306</v>
       </c>
       <c r="L11">
-        <v>0.0329897214596544</v>
+        <v>0.1048067842599858</v>
       </c>
       <c r="M11">
-        <v>1.16912667978896</v>
+        <v>0.8138166690669522</v>
       </c>
       <c r="N11">
-        <v>0.7665577824976797</v>
+        <v>2.06403653819245</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2997228405507428</v>
+        <v>0.3716364219886827</v>
       </c>
       <c r="D12">
-        <v>0.04623742172183398</v>
+        <v>0.0626201289845838</v>
       </c>
       <c r="E12">
-        <v>0.06211123972396138</v>
+        <v>0.1325109261511415</v>
       </c>
       <c r="F12">
-        <v>2.123054911551023</v>
+        <v>3.207995047989158</v>
       </c>
       <c r="G12">
-        <v>1.845687604527029</v>
+        <v>2.490535477881764</v>
       </c>
       <c r="H12">
-        <v>1.064724880630138</v>
+        <v>1.984378140212698</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09307307469179449</v>
+        <v>0.23422196054549</v>
       </c>
       <c r="K12">
-        <v>5.818413795862568</v>
+        <v>2.987574167970536</v>
       </c>
       <c r="L12">
-        <v>0.03294097973597943</v>
+        <v>0.1047311948011975</v>
       </c>
       <c r="M12">
-        <v>1.198497698890137</v>
+        <v>0.8205996647451599</v>
       </c>
       <c r="N12">
-        <v>0.7512142619601079</v>
+        <v>2.0579739266914</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2984801061025451</v>
+        <v>0.3714373962336879</v>
       </c>
       <c r="D13">
-        <v>0.04603005149680683</v>
+        <v>0.06257102987574825</v>
       </c>
       <c r="E13">
-        <v>0.06197235763342945</v>
+        <v>0.1325089322098343</v>
       </c>
       <c r="F13">
-        <v>2.116092093954833</v>
+        <v>3.207586862254928</v>
       </c>
       <c r="G13">
-        <v>1.839007616368832</v>
+        <v>2.490026887560731</v>
       </c>
       <c r="H13">
-        <v>1.062170142820889</v>
+        <v>1.984508028003006</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0929944022286513</v>
+        <v>0.2342728847804487</v>
       </c>
       <c r="K13">
-        <v>5.78625601885642</v>
+        <v>2.979652604946693</v>
       </c>
       <c r="L13">
-        <v>0.03295135905035274</v>
+        <v>0.1047473791219122</v>
       </c>
       <c r="M13">
-        <v>1.19216076176329</v>
+        <v>0.819136717107142</v>
       </c>
       <c r="N13">
-        <v>0.7545054559262994</v>
+        <v>2.059274723530942</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2944413699891015</v>
+        <v>0.3707922962617545</v>
       </c>
       <c r="D14">
-        <v>0.04535461895278559</v>
+        <v>0.06241119482339741</v>
       </c>
       <c r="E14">
-        <v>0.06152176158888167</v>
+        <v>0.1325034444990898</v>
       </c>
       <c r="F14">
-        <v>2.093541546810528</v>
+        <v>3.20629706081435</v>
       </c>
       <c r="G14">
-        <v>1.817375836529834</v>
+        <v>2.488404334657474</v>
       </c>
       <c r="H14">
-        <v>1.053916411192063</v>
+        <v>1.984954785710897</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09274291325498751</v>
+        <v>0.2344410126547416</v>
       </c>
       <c r="K14">
-        <v>5.681580678605428</v>
+        <v>2.953845644536386</v>
       </c>
       <c r="L14">
-        <v>0.03298565832840961</v>
+        <v>0.1048005225475617</v>
       </c>
       <c r="M14">
-        <v>1.171537979998078</v>
+        <v>0.8143737599933161</v>
       </c>
       <c r="N14">
-        <v>0.7652894915829886</v>
+        <v>2.0635355578793</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2919781935723336</v>
+        <v>0.3704002021530926</v>
       </c>
       <c r="D15">
-        <v>0.04494153572591131</v>
+        <v>0.0623135128202037</v>
       </c>
       <c r="E15">
-        <v>0.06124752742262629</v>
+        <v>0.1325008633396614</v>
       </c>
       <c r="F15">
-        <v>2.079847367676038</v>
+        <v>3.205538809944713</v>
       </c>
       <c r="G15">
-        <v>1.804241635420027</v>
+        <v>2.487438179520325</v>
       </c>
       <c r="H15">
-        <v>1.048919748545046</v>
+        <v>1.985246235435312</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09259272828369802</v>
+        <v>0.2345455734349358</v>
       </c>
       <c r="K15">
-        <v>5.617613287834786</v>
+        <v>2.938058877779326</v>
       </c>
       <c r="L15">
-        <v>0.03300701232372738</v>
+        <v>0.1048333534038122</v>
       </c>
       <c r="M15">
-        <v>1.158938629464942</v>
+        <v>0.8114624869055831</v>
       </c>
       <c r="N15">
-        <v>0.7719336822434482</v>
+        <v>2.066159773093982</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2780197098079782</v>
+        <v>0.3682000112006136</v>
       </c>
       <c r="D16">
-        <v>0.04258363150155731</v>
+        <v>0.06175715042651575</v>
       </c>
       <c r="E16">
-        <v>0.0597022934032303</v>
+        <v>0.1324980430314078</v>
       </c>
       <c r="F16">
-        <v>2.003120787354419</v>
+        <v>3.201680498038755</v>
       </c>
       <c r="G16">
-        <v>1.730680197464466</v>
+        <v>2.482325689727844</v>
       </c>
       <c r="H16">
-        <v>1.021157294430964</v>
+        <v>1.987189084989836</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09178948374125895</v>
+        <v>0.2351689550092786</v>
       </c>
       <c r="K16">
-        <v>5.253209983818977</v>
+        <v>2.847909671672653</v>
       </c>
       <c r="L16">
-        <v>0.03313462077845308</v>
+        <v>0.1050257763779845</v>
       </c>
       <c r="M16">
-        <v>1.087213534665381</v>
+        <v>0.7948739342829541</v>
       </c>
       <c r="N16">
-        <v>0.8105881302097586</v>
+        <v>2.0814176555124</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.269589899475335</v>
+        <v>0.3668919964926545</v>
       </c>
       <c r="D17">
-        <v>0.04114493806003594</v>
+        <v>0.06141890524553872</v>
       </c>
       <c r="E17">
-        <v>0.05877694061706151</v>
+        <v>0.1325070087987541</v>
       </c>
       <c r="F17">
-        <v>1.957539216501701</v>
+        <v>3.199747674110426</v>
       </c>
       <c r="G17">
-        <v>1.687000115036909</v>
+        <v>2.47956728992898</v>
       </c>
       <c r="H17">
-        <v>1.004869254153732</v>
+        <v>1.988624136828918</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09134611202315313</v>
+        <v>0.2355729673028399</v>
       </c>
       <c r="K17">
-        <v>5.031469160554423</v>
+        <v>2.792890646786248</v>
       </c>
       <c r="L17">
-        <v>0.03321753009097517</v>
+        <v>0.1051476504037225</v>
       </c>
       <c r="M17">
-        <v>1.043612219650051</v>
+        <v>0.7847820971796295</v>
       </c>
       <c r="N17">
-        <v>0.8348044161560901</v>
+        <v>2.090973697265863</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2647876687884718</v>
+        <v>0.3661550061564611</v>
       </c>
       <c r="D18">
-        <v>0.0403201169915306</v>
+        <v>0.06122548956656715</v>
       </c>
       <c r="E18">
-        <v>0.058252677679409</v>
+        <v>0.1325161018689194</v>
       </c>
       <c r="F18">
-        <v>1.931840713374754</v>
+        <v>3.198795363031337</v>
       </c>
       <c r="G18">
-        <v>1.66238010917931</v>
+        <v>2.478119414947599</v>
       </c>
       <c r="H18">
-        <v>0.9957609151032329</v>
+        <v>1.989538855950116</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09110854956267289</v>
+        <v>0.2358132804988351</v>
       </c>
       <c r="K18">
-        <v>4.904546498850664</v>
+        <v>2.76134994786662</v>
       </c>
       <c r="L18">
-        <v>0.03326689920329606</v>
+        <v>0.1052191590856868</v>
       </c>
       <c r="M18">
-        <v>1.018671003068604</v>
+        <v>0.7790087200673241</v>
       </c>
       <c r="N18">
-        <v>0.8489125561368898</v>
+        <v>2.096542006961759</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2631694426151938</v>
+        <v>0.3659081103007935</v>
       </c>
       <c r="D19">
-        <v>0.04004128922560568</v>
+        <v>0.06116019782903948</v>
       </c>
       <c r="E19">
-        <v>0.05807651092893451</v>
+        <v>0.1325198571935289</v>
       </c>
       <c r="F19">
-        <v>1.92322619708429</v>
+        <v>3.198500290294604</v>
       </c>
       <c r="G19">
-        <v>1.65412810829929</v>
+        <v>2.477652988491656</v>
       </c>
       <c r="H19">
-        <v>0.9927204693202043</v>
+        <v>1.98986389928146</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09103104877153712</v>
+        <v>0.2358960096788287</v>
       </c>
       <c r="K19">
-        <v>4.861674223776333</v>
+        <v>2.750688826118619</v>
       </c>
       <c r="L19">
-        <v>0.03328390196427033</v>
+        <v>0.1052436131363521</v>
       </c>
       <c r="M19">
-        <v>1.010248989959827</v>
+        <v>0.7770593141307174</v>
       </c>
       <c r="N19">
-        <v>0.853719688242804</v>
+        <v>2.098439690993695</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2704824106018577</v>
+        <v>0.3670296489361533</v>
       </c>
       <c r="D20">
-        <v>0.04129780816603557</v>
+        <v>0.06145479482893279</v>
       </c>
       <c r="E20">
-        <v>0.05887461333640864</v>
+        <v>0.1325056471202473</v>
       </c>
       <c r="F20">
-        <v>1.962337145283897</v>
+        <v>3.199936926285574</v>
       </c>
       <c r="G20">
-        <v>1.6915971902759</v>
+        <v>2.479846568368259</v>
       </c>
       <c r="H20">
-        <v>1.006575936981989</v>
+        <v>1.988462128203849</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09139148803588526</v>
+        <v>0.2355291382168332</v>
       </c>
       <c r="K20">
-        <v>5.055008962824616</v>
+        <v>2.79873667524987</v>
       </c>
       <c r="L20">
-        <v>0.03320852979284705</v>
+        <v>0.1051345308449516</v>
       </c>
       <c r="M20">
-        <v>1.048239249471628</v>
+        <v>0.7858531645875573</v>
       </c>
       <c r="N20">
-        <v>0.8322078500259469</v>
+        <v>2.089948995300714</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2956254059851062</v>
+        <v>0.370981142557099</v>
       </c>
       <c r="D21">
-        <v>0.04555287557710841</v>
+        <v>0.0624580961174459</v>
       </c>
       <c r="E21">
-        <v>0.06165374191766304</v>
+        <v>0.1325048938052547</v>
       </c>
       <c r="F21">
-        <v>2.100140284830346</v>
+        <v>3.206669281003059</v>
       </c>
       <c r="G21">
-        <v>1.823705289886874</v>
+        <v>2.48887514281725</v>
       </c>
       <c r="H21">
-        <v>1.056328359455335</v>
+        <v>1.984819852817139</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09281597311137446</v>
+        <v>0.2343913006648783</v>
       </c>
       <c r="K21">
-        <v>5.712294959970563</v>
+        <v>2.961421452926857</v>
       </c>
       <c r="L21">
-        <v>0.03297551185144609</v>
+        <v>0.1047848549137926</v>
       </c>
       <c r="M21">
-        <v>1.177588516522476</v>
+        <v>0.8157714692349742</v>
       </c>
       <c r="N21">
-        <v>0.76211387031538</v>
+        <v>2.062281060725786</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3125280554766903</v>
+        <v>0.3737001286987436</v>
       </c>
       <c r="D22">
-        <v>0.04836187042617723</v>
+        <v>0.06312374928985776</v>
       </c>
       <c r="E22">
-        <v>0.06354833251877423</v>
+        <v>0.1325393370469143</v>
       </c>
       <c r="F22">
-        <v>2.195437908597413</v>
+        <v>3.212491715572682</v>
       </c>
       <c r="G22">
-        <v>1.915154722993378</v>
+        <v>2.4960152963219</v>
       </c>
       <c r="H22">
-        <v>1.091448677763452</v>
+        <v>1.98323586039524</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09391777170365145</v>
+        <v>0.2337182745308937</v>
       </c>
       <c r="K22">
-        <v>6.148419043677507</v>
+        <v>3.068674246796206</v>
       </c>
       <c r="L22">
-        <v>0.03283859922784771</v>
+        <v>0.1045688154723807</v>
       </c>
       <c r="M22">
-        <v>1.263562395482523</v>
+        <v>0.8356013603890347</v>
       </c>
       <c r="N22">
-        <v>0.7180190940066282</v>
+        <v>2.044839791050796</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.303460819234175</v>
+        <v>0.3722364778180349</v>
       </c>
       <c r="D23">
-        <v>0.0468598706087846</v>
+        <v>0.06276757606720906</v>
       </c>
       <c r="E23">
-        <v>0.06252961970159276</v>
+        <v>0.1325177629931176</v>
       </c>
       <c r="F23">
-        <v>2.144065045296614</v>
+        <v>3.20925386970967</v>
       </c>
       <c r="G23">
-        <v>1.865846773788405</v>
+        <v>2.492090832120994</v>
       </c>
       <c r="H23">
-        <v>1.072451173177797</v>
+        <v>1.98400833774798</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09331329846877168</v>
+        <v>0.2340710223009062</v>
       </c>
       <c r="K23">
-        <v>5.914997616488165</v>
+        <v>3.011346620895949</v>
       </c>
       <c r="L23">
-        <v>0.03291024402551201</v>
+        <v>0.1046829795526083</v>
       </c>
       <c r="M23">
-        <v>1.217533948607681</v>
+        <v>0.8249925229466726</v>
       </c>
       <c r="N23">
-        <v>0.7413903144918041</v>
+        <v>2.054089802470958</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.270078769324769</v>
+        <v>0.3669673695288083</v>
       </c>
       <c r="D24">
-        <v>0.0412286884626667</v>
+        <v>0.06143856588896313</v>
       </c>
       <c r="E24">
-        <v>0.05883043148565115</v>
+        <v>0.1325062504660419</v>
       </c>
       <c r="F24">
-        <v>1.960166429223378</v>
+        <v>3.199850870465795</v>
       </c>
       <c r="G24">
-        <v>1.689517325965596</v>
+        <v>2.479719876885326</v>
       </c>
       <c r="H24">
-        <v>1.005803551766547</v>
+        <v>1.9885350929396</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09137091970143629</v>
+        <v>0.2355489282986198</v>
       </c>
       <c r="K24">
-        <v>5.044364888061523</v>
+        <v>2.796093403928239</v>
       </c>
       <c r="L24">
-        <v>0.03321259352598194</v>
+        <v>0.1051404577062041</v>
       </c>
       <c r="M24">
-        <v>1.046146979878522</v>
+        <v>0.7853688460569046</v>
       </c>
       <c r="N24">
-        <v>0.8333811798624966</v>
+        <v>2.090412031271303</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2358169560167767</v>
+        <v>0.3618705479088788</v>
       </c>
       <c r="D25">
-        <v>0.03525499186758907</v>
+        <v>0.0600484600235589</v>
       </c>
       <c r="E25">
-        <v>0.05514177983316237</v>
+        <v>0.1326443890149687</v>
       </c>
       <c r="F25">
-        <v>1.781351960565189</v>
+        <v>3.195800454670547</v>
       </c>
       <c r="G25">
-        <v>1.518283028776665</v>
+        <v>2.471675208029865</v>
       </c>
       <c r="H25">
-        <v>0.9437247792965309</v>
+        <v>1.996831978285343</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08993589086070841</v>
+        <v>0.2374465341802541</v>
       </c>
       <c r="K25">
-        <v>4.12833794658286</v>
+        <v>2.567916001242793</v>
       </c>
       <c r="L25">
-        <v>0.03360285413373365</v>
+        <v>0.1056878658863578</v>
       </c>
       <c r="M25">
-        <v>0.8664200690089103</v>
+        <v>0.7438209092506725</v>
       </c>
       <c r="N25">
-        <v>0.9394200601111375</v>
+        <v>2.132341031889418</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3586222133355363</v>
+        <v>0.2118183753330811</v>
       </c>
       <c r="D2">
-        <v>0.05906290126593206</v>
+        <v>0.03092264755263585</v>
       </c>
       <c r="E2">
-        <v>0.1328761516594792</v>
+        <v>0.05265059179922282</v>
       </c>
       <c r="F2">
-        <v>3.198037250614647</v>
+        <v>1.663612776127934</v>
       </c>
       <c r="G2">
-        <v>2.470281004012463</v>
+        <v>1.405584598658933</v>
       </c>
       <c r="H2">
-        <v>2.005870798417163</v>
+        <v>0.9051063290191763</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2391051643663751</v>
+        <v>0.08937508846538478</v>
       </c>
       <c r="K2">
-        <v>2.403337428066493</v>
+        <v>3.468671825284957</v>
       </c>
       <c r="L2">
-        <v>0.1061377151953922</v>
+        <v>0.03394359432903205</v>
       </c>
       <c r="M2">
-        <v>0.7142530321728202</v>
+        <v>0.7374773629962021</v>
       </c>
       <c r="N2">
-        <v>2.16557970365297</v>
+        <v>1.022829701371942</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3567354971009422</v>
+        <v>0.1962003369407483</v>
       </c>
       <c r="D3">
-        <v>0.05841900120496035</v>
+        <v>0.02801907129148162</v>
       </c>
       <c r="E3">
-        <v>0.1331146532641405</v>
+        <v>0.05108729505100307</v>
       </c>
       <c r="F3">
-        <v>3.202799337409928</v>
+        <v>1.591236936793862</v>
       </c>
       <c r="G3">
-        <v>2.472147669621577</v>
+        <v>1.336272102268779</v>
       </c>
       <c r="H3">
-        <v>2.013821287754226</v>
+        <v>0.8827671737640799</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2403925642453224</v>
+        <v>0.08927281020888245</v>
       </c>
       <c r="K3">
-        <v>2.293932862647125</v>
+        <v>3.028634284547252</v>
       </c>
       <c r="L3">
-        <v>0.1064719773979412</v>
+        <v>0.03420708808954576</v>
       </c>
       <c r="M3">
-        <v>0.6948529172636455</v>
+        <v>0.6517547656880609</v>
       </c>
       <c r="N3">
-        <v>2.189582963661733</v>
+        <v>1.082455080170472</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3557323763221945</v>
+        <v>0.186893813929899</v>
       </c>
       <c r="D4">
-        <v>0.05803562181423771</v>
+        <v>0.02624978372968556</v>
       </c>
       <c r="E4">
-        <v>0.1333013751575702</v>
+        <v>0.05018457674391286</v>
       </c>
       <c r="F4">
-        <v>3.207321764178047</v>
+        <v>1.550080522045249</v>
       </c>
       <c r="G4">
-        <v>2.474676461168073</v>
+        <v>1.296818034806279</v>
       </c>
       <c r="H4">
-        <v>2.019602237705172</v>
+        <v>0.8707666067653435</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2412636879096937</v>
+        <v>0.08933767950809113</v>
       </c>
       <c r="K4">
-        <v>2.227809643418453</v>
+        <v>2.761264047355866</v>
       </c>
       <c r="L4">
-        <v>0.106691783417495</v>
+        <v>0.03438473098102079</v>
       </c>
       <c r="M4">
-        <v>0.6832563537928635</v>
+        <v>0.5998080490433253</v>
       </c>
       <c r="N4">
-        <v>2.205049848110636</v>
+        <v>1.120525055626473</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3553626942099584</v>
+        <v>0.1831676437775656</v>
       </c>
       <c r="D5">
-        <v>0.05788242739141225</v>
+        <v>0.02553185733516017</v>
       </c>
       <c r="E5">
-        <v>0.1333876143550778</v>
+        <v>0.04983046928906276</v>
       </c>
       <c r="F5">
-        <v>3.209566357754198</v>
+        <v>1.534082856813072</v>
       </c>
       <c r="G5">
-        <v>2.476054137689005</v>
+        <v>1.281468550460474</v>
       </c>
       <c r="H5">
-        <v>2.022184089318699</v>
+        <v>0.8662837282333413</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2416389738834717</v>
+        <v>0.08939493200874793</v>
       </c>
       <c r="K5">
-        <v>2.201129000290138</v>
+        <v>2.652928615995506</v>
       </c>
       <c r="L5">
-        <v>0.106785029259461</v>
+        <v>0.03446108119587166</v>
       </c>
       <c r="M5">
-        <v>0.6786100943881834</v>
+        <v>0.5787942162663171</v>
       </c>
       <c r="N5">
-        <v>2.211535968366158</v>
+        <v>1.136396351036271</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3553036713423978</v>
+        <v>0.182552785435945</v>
       </c>
       <c r="D6">
-        <v>0.05785717363396614</v>
+        <v>0.02541282275530321</v>
       </c>
       <c r="E6">
-        <v>0.133402547831091</v>
+        <v>0.04977248376801313</v>
       </c>
       <c r="F6">
-        <v>3.209963322415675</v>
+        <v>1.531471756988665</v>
       </c>
       <c r="G6">
-        <v>2.476303853602275</v>
+        <v>1.278962312435539</v>
       </c>
       <c r="H6">
-        <v>2.022626455690016</v>
+        <v>0.865563287714096</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2417025161003927</v>
+        <v>0.08940626410230124</v>
       </c>
       <c r="K6">
-        <v>2.196714731601048</v>
+        <v>2.634974607506052</v>
       </c>
       <c r="L6">
-        <v>0.1068007347994557</v>
+        <v>0.03447399745621116</v>
       </c>
       <c r="M6">
-        <v>0.6778433895372018</v>
+        <v>0.5753137382670772</v>
       </c>
       <c r="N6">
-        <v>2.212624050416384</v>
+        <v>1.139053090129862</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3557272323028542</v>
+        <v>0.1868432991755071</v>
       </c>
       <c r="D7">
-        <v>0.05803354345685108</v>
+        <v>0.026240089494177</v>
       </c>
       <c r="E7">
-        <v>0.1333024970923855</v>
+        <v>0.05017974620432675</v>
       </c>
       <c r="F7">
-        <v>3.207350409601275</v>
+        <v>1.549861704024025</v>
       </c>
       <c r="G7">
-        <v>2.474693635980813</v>
+        <v>1.296608143573721</v>
       </c>
       <c r="H7">
-        <v>2.019636142226403</v>
+        <v>0.8707045298787079</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2412686669503614</v>
+        <v>0.08933832849131917</v>
       </c>
       <c r="K7">
-        <v>2.227448744644136</v>
+        <v>2.759800598420014</v>
       </c>
       <c r="L7">
-        <v>0.1066930260781218</v>
+        <v>0.03438574467056998</v>
       </c>
       <c r="M7">
-        <v>0.6831933708492954</v>
+        <v>0.5995240448811145</v>
       </c>
       <c r="N7">
-        <v>2.20513658030135</v>
+        <v>1.1207376662591</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3579394562028284</v>
+        <v>0.2063715079497825</v>
       </c>
       <c r="D8">
-        <v>0.05883841250115651</v>
+        <v>0.0299184817801077</v>
       </c>
       <c r="E8">
-        <v>0.1329500382234219</v>
+        <v>0.05209932215180935</v>
       </c>
       <c r="F8">
-        <v>3.199347272398938</v>
+        <v>1.637944134034839</v>
       </c>
       <c r="G8">
-        <v>2.470637348977263</v>
+        <v>1.38100885578983</v>
       </c>
       <c r="H8">
-        <v>2.00842542633508</v>
+        <v>0.8970327164131504</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2395323285694211</v>
+        <v>0.08931252375550613</v>
       </c>
       <c r="K8">
-        <v>2.365396824423669</v>
+        <v>3.31630788692712</v>
       </c>
       <c r="L8">
-        <v>0.1062499512506818</v>
+        <v>0.03403113820567061</v>
       </c>
       <c r="M8">
-        <v>0.7074985541813561</v>
+        <v>0.7077663351570251</v>
       </c>
       <c r="N8">
-        <v>2.173704757732803</v>
+        <v>1.043079583238548</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3635090599126158</v>
+        <v>0.2471501866682786</v>
       </c>
       <c r="D9">
-        <v>0.06051086411927287</v>
+        <v>0.03725572158869994</v>
       </c>
       <c r="E9">
-        <v>0.1325776941186483</v>
+        <v>0.05634723053919899</v>
       </c>
       <c r="F9">
-        <v>3.196352801242128</v>
+        <v>1.839242575630109</v>
       </c>
       <c r="G9">
-        <v>2.473679664158226</v>
+        <v>1.573701908755709</v>
       </c>
       <c r="H9">
-        <v>1.993581634078851</v>
+        <v>0.9634505379832774</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2367667435627823</v>
+        <v>0.09033776729352283</v>
       </c>
       <c r="K9">
-        <v>2.644244503605535</v>
+        <v>4.434288339434147</v>
       </c>
       <c r="L9">
-        <v>0.1054962283342924</v>
+        <v>0.03346299247465279</v>
       </c>
       <c r="M9">
-        <v>0.75765730650172</v>
+        <v>0.9263703874177978</v>
       </c>
       <c r="N9">
-        <v>2.117849670806686</v>
+        <v>0.9028393514651976</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3683513434346111</v>
+        <v>0.2789880790438417</v>
       </c>
       <c r="D10">
-        <v>0.06179589966745169</v>
+        <v>0.04274817279143406</v>
       </c>
       <c r="E10">
-        <v>0.1324975529445034</v>
+        <v>0.05980898677809598</v>
       </c>
       <c r="F10">
-        <v>3.201922655869055</v>
+        <v>2.008394251345393</v>
       </c>
       <c r="G10">
-        <v>2.482659249640591</v>
+        <v>1.73573465905713</v>
       </c>
       <c r="H10">
-        <v>1.987037441788772</v>
+        <v>1.023052049407823</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2351239295648213</v>
+        <v>0.09184249027754987</v>
       </c>
       <c r="K10">
-        <v>2.854201909799542</v>
+        <v>5.278599147075226</v>
       </c>
       <c r="L10">
-        <v>0.1050120605469562</v>
+        <v>0.0331253894284167</v>
       </c>
       <c r="M10">
-        <v>0.7960297043641873</v>
+        <v>1.092208023616223</v>
       </c>
       <c r="N10">
-        <v>2.080336993735539</v>
+        <v>0.8078495931530227</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3707171350468172</v>
+        <v>0.2939697081190502</v>
       </c>
       <c r="D11">
-        <v>0.06239250187638135</v>
+        <v>0.04527558731992798</v>
       </c>
       <c r="E11">
-        <v>0.1325029046140322</v>
+        <v>0.06146921539632899</v>
       </c>
       <c r="F11">
-        <v>3.206150174743271</v>
+        <v>2.090915820280429</v>
       </c>
       <c r="G11">
-        <v>2.488217933320499</v>
+        <v>1.814857361525782</v>
       </c>
       <c r="H11">
-        <v>1.985009464268245</v>
+        <v>1.052957425356112</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2344609142977454</v>
+        <v>0.09271396586290592</v>
       </c>
       <c r="K11">
-        <v>2.950825500876306</v>
+        <v>5.669339403048639</v>
       </c>
       <c r="L11">
-        <v>0.1048067842599858</v>
+        <v>0.03298972145972634</v>
       </c>
       <c r="M11">
-        <v>0.8138166690669522</v>
+        <v>1.169126679788945</v>
       </c>
       <c r="N11">
-        <v>2.06403653819245</v>
+        <v>0.7665577824976904</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3716364219886827</v>
+        <v>0.2997228405511692</v>
       </c>
       <c r="D12">
-        <v>0.0626201289845838</v>
+        <v>0.04623742172195477</v>
       </c>
       <c r="E12">
-        <v>0.1325109261511415</v>
+        <v>0.06211123972396138</v>
       </c>
       <c r="F12">
-        <v>3.207995047989158</v>
+        <v>2.123054911550994</v>
       </c>
       <c r="G12">
-        <v>2.490535477881764</v>
+        <v>1.845687604527029</v>
       </c>
       <c r="H12">
-        <v>1.984378140212698</v>
+        <v>1.064724880630251</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.23422196054549</v>
+        <v>0.09307307469173765</v>
       </c>
       <c r="K12">
-        <v>2.987574167970536</v>
+        <v>5.818413795862625</v>
       </c>
       <c r="L12">
-        <v>0.1047311948011975</v>
+        <v>0.03294097973587107</v>
       </c>
       <c r="M12">
-        <v>0.8205996647451599</v>
+        <v>1.198497698890151</v>
       </c>
       <c r="N12">
-        <v>2.0579739266914</v>
+        <v>0.7512142619600475</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3714373962336879</v>
+        <v>0.2984801061025735</v>
       </c>
       <c r="D13">
-        <v>0.06257102987574825</v>
+        <v>0.04603005149678552</v>
       </c>
       <c r="E13">
-        <v>0.1325089322098343</v>
+        <v>0.06197235763342945</v>
       </c>
       <c r="F13">
-        <v>3.207586862254928</v>
+        <v>2.116092093954833</v>
       </c>
       <c r="G13">
-        <v>2.490026887560731</v>
+        <v>1.83900761636886</v>
       </c>
       <c r="H13">
-        <v>1.984508028003006</v>
+        <v>1.062170142820889</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2342728847804487</v>
+        <v>0.09299440222869038</v>
       </c>
       <c r="K13">
-        <v>2.979652604946693</v>
+        <v>5.786256018856363</v>
       </c>
       <c r="L13">
-        <v>0.1047473791219122</v>
+        <v>0.03295135905034652</v>
       </c>
       <c r="M13">
-        <v>0.819136717107142</v>
+        <v>1.19216076176329</v>
       </c>
       <c r="N13">
-        <v>2.059274723530942</v>
+        <v>0.7545054559262958</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3707922962617545</v>
+        <v>0.2944413699886752</v>
       </c>
       <c r="D14">
-        <v>0.06241119482339741</v>
+        <v>0.04535461895277848</v>
       </c>
       <c r="E14">
-        <v>0.1325034444990898</v>
+        <v>0.06152176158889588</v>
       </c>
       <c r="F14">
-        <v>3.20629706081435</v>
+        <v>2.093541546810528</v>
       </c>
       <c r="G14">
-        <v>2.488404334657474</v>
+        <v>1.817375836529834</v>
       </c>
       <c r="H14">
-        <v>1.984954785710897</v>
+        <v>1.053916411192063</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2344410126547416</v>
+        <v>0.09274291325504791</v>
       </c>
       <c r="K14">
-        <v>2.953845644536386</v>
+        <v>5.681580678605428</v>
       </c>
       <c r="L14">
-        <v>0.1048005225475617</v>
+        <v>0.03298565832841582</v>
       </c>
       <c r="M14">
-        <v>0.8143737599933161</v>
+        <v>1.171537979998092</v>
       </c>
       <c r="N14">
-        <v>2.0635355578793</v>
+        <v>0.7652894915829975</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3704002021530926</v>
+        <v>0.2919781935722767</v>
       </c>
       <c r="D15">
-        <v>0.0623135128202037</v>
+        <v>0.04494153572592552</v>
       </c>
       <c r="E15">
-        <v>0.1325008633396614</v>
+        <v>0.06124752742266182</v>
       </c>
       <c r="F15">
-        <v>3.205538809944713</v>
+        <v>2.079847367676038</v>
       </c>
       <c r="G15">
-        <v>2.487438179520325</v>
+        <v>1.804241635419999</v>
       </c>
       <c r="H15">
-        <v>1.985246235435312</v>
+        <v>1.048919748545075</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2345455734349358</v>
+        <v>0.09259272828370868</v>
       </c>
       <c r="K15">
-        <v>2.938058877779326</v>
+        <v>5.617613287834786</v>
       </c>
       <c r="L15">
-        <v>0.1048333534038122</v>
+        <v>0.03300701232373005</v>
       </c>
       <c r="M15">
-        <v>0.8114624869055831</v>
+        <v>1.158938629464927</v>
       </c>
       <c r="N15">
-        <v>2.066159773093982</v>
+        <v>0.7719336822435086</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3682000112006136</v>
+        <v>0.2780197098078077</v>
       </c>
       <c r="D16">
-        <v>0.06175715042651575</v>
+        <v>0.04258363150144362</v>
       </c>
       <c r="E16">
-        <v>0.1324980430314078</v>
+        <v>0.05970229340321609</v>
       </c>
       <c r="F16">
-        <v>3.201680498038755</v>
+        <v>2.003120787354419</v>
       </c>
       <c r="G16">
-        <v>2.482325689727844</v>
+        <v>1.730680197464551</v>
       </c>
       <c r="H16">
-        <v>1.987189084989836</v>
+        <v>1.021157294430878</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2351689550092786</v>
+        <v>0.09178948374120921</v>
       </c>
       <c r="K16">
-        <v>2.847909671672653</v>
+        <v>5.253209983818977</v>
       </c>
       <c r="L16">
-        <v>0.1050257763779845</v>
+        <v>0.03313462077840068</v>
       </c>
       <c r="M16">
-        <v>0.7948739342829541</v>
+        <v>1.087213534665388</v>
       </c>
       <c r="N16">
-        <v>2.0814176555124</v>
+        <v>0.8105881302097622</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3668919964926545</v>
+        <v>0.2695898994755339</v>
       </c>
       <c r="D17">
-        <v>0.06141890524553872</v>
+        <v>0.04114493806005015</v>
       </c>
       <c r="E17">
-        <v>0.1325070087987541</v>
+        <v>0.05877694061705085</v>
       </c>
       <c r="F17">
-        <v>3.199747674110426</v>
+        <v>1.957539216501729</v>
       </c>
       <c r="G17">
-        <v>2.47956728992898</v>
+        <v>1.687000115036824</v>
       </c>
       <c r="H17">
-        <v>1.988624136828918</v>
+        <v>1.00486925415376</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2355729673028399</v>
+        <v>0.09134611202308207</v>
       </c>
       <c r="K17">
-        <v>2.792890646786248</v>
+        <v>5.031469160554309</v>
       </c>
       <c r="L17">
-        <v>0.1051476504037225</v>
+        <v>0.03321753009090056</v>
       </c>
       <c r="M17">
-        <v>0.7847820971796295</v>
+        <v>1.043612219650051</v>
       </c>
       <c r="N17">
-        <v>2.090973697265863</v>
+        <v>0.8348044161561461</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3661550061564611</v>
+        <v>0.2647876687883155</v>
       </c>
       <c r="D18">
-        <v>0.06122548956656715</v>
+        <v>0.04032011699160876</v>
       </c>
       <c r="E18">
-        <v>0.1325161018689194</v>
+        <v>0.058252677679409</v>
       </c>
       <c r="F18">
-        <v>3.198795363031337</v>
+        <v>1.93184071337474</v>
       </c>
       <c r="G18">
-        <v>2.478119414947599</v>
+        <v>1.662380109179367</v>
       </c>
       <c r="H18">
-        <v>1.989538855950116</v>
+        <v>0.9957609151032329</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2358132804988351</v>
+        <v>0.09110854956265868</v>
       </c>
       <c r="K18">
-        <v>2.76134994786662</v>
+        <v>4.904546498850607</v>
       </c>
       <c r="L18">
-        <v>0.1052191590856868</v>
+        <v>0.03326689920329162</v>
       </c>
       <c r="M18">
-        <v>0.7790087200673241</v>
+        <v>1.018671003068583</v>
       </c>
       <c r="N18">
-        <v>2.096542006961759</v>
+        <v>0.8489125561368889</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3659081103007935</v>
+        <v>0.2631694426149949</v>
       </c>
       <c r="D19">
-        <v>0.06116019782903948</v>
+        <v>0.04004128922548489</v>
       </c>
       <c r="E19">
-        <v>0.1325198571935289</v>
+        <v>0.05807651092889721</v>
       </c>
       <c r="F19">
-        <v>3.198500290294604</v>
+        <v>1.923226197084261</v>
       </c>
       <c r="G19">
-        <v>2.477652988491656</v>
+        <v>1.65412810829929</v>
       </c>
       <c r="H19">
-        <v>1.98986389928146</v>
+        <v>0.9927204693201759</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2358960096788287</v>
+        <v>0.09103104877140922</v>
       </c>
       <c r="K19">
-        <v>2.750688826118619</v>
+        <v>4.86167422377639</v>
       </c>
       <c r="L19">
-        <v>0.1052436131363521</v>
+        <v>0.03328390196419839</v>
       </c>
       <c r="M19">
-        <v>0.7770593141307174</v>
+        <v>1.010248989959834</v>
       </c>
       <c r="N19">
-        <v>2.098439690993695</v>
+        <v>0.8537196882427915</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3670296489361533</v>
+        <v>0.2704824106018719</v>
       </c>
       <c r="D20">
-        <v>0.06145479482893279</v>
+        <v>0.04129780816570161</v>
       </c>
       <c r="E20">
-        <v>0.1325056471202473</v>
+        <v>0.05887461333640509</v>
       </c>
       <c r="F20">
-        <v>3.199936926285574</v>
+        <v>1.962337145283897</v>
       </c>
       <c r="G20">
-        <v>2.479846568368259</v>
+        <v>1.691597190275871</v>
       </c>
       <c r="H20">
-        <v>1.988462128203849</v>
+        <v>1.006575936982017</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2355291382168332</v>
+        <v>0.09139148803581421</v>
       </c>
       <c r="K20">
-        <v>2.79873667524987</v>
+        <v>5.055008962824786</v>
       </c>
       <c r="L20">
-        <v>0.1051345308449516</v>
+        <v>0.03320852979284084</v>
       </c>
       <c r="M20">
-        <v>0.7858531645875573</v>
+        <v>1.048239249471628</v>
       </c>
       <c r="N20">
-        <v>2.089948995300714</v>
+        <v>0.8322078500258625</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.370981142557099</v>
+        <v>0.2956254059851062</v>
       </c>
       <c r="D21">
-        <v>0.0624580961174459</v>
+        <v>0.04555287557731447</v>
       </c>
       <c r="E21">
-        <v>0.1325048938052547</v>
+        <v>0.06165374191768436</v>
       </c>
       <c r="F21">
-        <v>3.206669281003059</v>
+        <v>2.100140284830331</v>
       </c>
       <c r="G21">
-        <v>2.48887514281725</v>
+        <v>1.823705289886846</v>
       </c>
       <c r="H21">
-        <v>1.984819852817139</v>
+        <v>1.056328359455335</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2343913006648783</v>
+        <v>0.09281597311141354</v>
       </c>
       <c r="K21">
-        <v>2.961421452926857</v>
+        <v>5.71229495997045</v>
       </c>
       <c r="L21">
-        <v>0.1047848549137926</v>
+        <v>0.03297551185137504</v>
       </c>
       <c r="M21">
-        <v>0.8157714692349742</v>
+        <v>1.177588516522462</v>
       </c>
       <c r="N21">
-        <v>2.062281060725786</v>
+        <v>0.7621138703153019</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3737001286987436</v>
+        <v>0.3125280554765197</v>
       </c>
       <c r="D22">
-        <v>0.06312374928985776</v>
+        <v>0.04836187042630513</v>
       </c>
       <c r="E22">
-        <v>0.1325393370469143</v>
+        <v>0.06354833251876357</v>
       </c>
       <c r="F22">
-        <v>3.212491715572682</v>
+        <v>2.195437908597427</v>
       </c>
       <c r="G22">
-        <v>2.4960152963219</v>
+        <v>1.915154722993378</v>
       </c>
       <c r="H22">
-        <v>1.98323586039524</v>
+        <v>1.091448677763452</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2337182745308937</v>
+        <v>0.09391777170372251</v>
       </c>
       <c r="K22">
-        <v>3.068674246796206</v>
+        <v>6.148419043677563</v>
       </c>
       <c r="L22">
-        <v>0.1045688154723807</v>
+        <v>0.03283859922786192</v>
       </c>
       <c r="M22">
-        <v>0.8356013603890347</v>
+        <v>1.263562395482523</v>
       </c>
       <c r="N22">
-        <v>2.044839791050796</v>
+        <v>0.7180190940066247</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3722364778180349</v>
+        <v>0.303460819234175</v>
       </c>
       <c r="D23">
-        <v>0.06276757606720906</v>
+        <v>0.04685987060879171</v>
       </c>
       <c r="E23">
-        <v>0.1325177629931176</v>
+        <v>0.06252961970161408</v>
       </c>
       <c r="F23">
-        <v>3.20925386970967</v>
+        <v>2.144065045296614</v>
       </c>
       <c r="G23">
-        <v>2.492090832120994</v>
+        <v>1.865846773788377</v>
       </c>
       <c r="H23">
-        <v>1.98400833774798</v>
+        <v>1.072451173177797</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2340710223009062</v>
+        <v>0.0933132984686651</v>
       </c>
       <c r="K23">
-        <v>3.011346620895949</v>
+        <v>5.914997616488222</v>
       </c>
       <c r="L23">
-        <v>0.1046829795526083</v>
+        <v>0.03291024402546938</v>
       </c>
       <c r="M23">
-        <v>0.8249925229466726</v>
+        <v>1.217533948607695</v>
       </c>
       <c r="N23">
-        <v>2.054089802470958</v>
+        <v>0.7413903144918113</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3669673695288083</v>
+        <v>0.2700787693251243</v>
       </c>
       <c r="D24">
-        <v>0.06143856588896313</v>
+        <v>0.0412286884626667</v>
       </c>
       <c r="E24">
-        <v>0.1325062504660419</v>
+        <v>0.05883043148565292</v>
       </c>
       <c r="F24">
-        <v>3.199850870465795</v>
+        <v>1.960166429223378</v>
       </c>
       <c r="G24">
-        <v>2.479719876885326</v>
+        <v>1.689517325965625</v>
       </c>
       <c r="H24">
-        <v>1.9885350929396</v>
+        <v>1.005803551766661</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2355489282986198</v>
+        <v>0.09137091970148603</v>
       </c>
       <c r="K24">
-        <v>2.796093403928239</v>
+        <v>5.04436488806158</v>
       </c>
       <c r="L24">
-        <v>0.1051404577062041</v>
+        <v>0.03321259352598283</v>
       </c>
       <c r="M24">
-        <v>0.7853688460569046</v>
+        <v>1.046146979878515</v>
       </c>
       <c r="N24">
-        <v>2.090412031271303</v>
+        <v>0.8333811798624948</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3618705479088788</v>
+        <v>0.2358169560169756</v>
       </c>
       <c r="D25">
-        <v>0.0600484600235589</v>
+        <v>0.03525499186779513</v>
       </c>
       <c r="E25">
-        <v>0.1326443890149687</v>
+        <v>0.05514177983319435</v>
       </c>
       <c r="F25">
-        <v>3.195800454670547</v>
+        <v>1.781351960565217</v>
       </c>
       <c r="G25">
-        <v>2.471675208029865</v>
+        <v>1.518283028776693</v>
       </c>
       <c r="H25">
-        <v>1.996831978285343</v>
+        <v>0.9437247792965593</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2374465341802541</v>
+        <v>0.08993589086077236</v>
       </c>
       <c r="K25">
-        <v>2.567916001242793</v>
+        <v>4.12833794658286</v>
       </c>
       <c r="L25">
-        <v>0.1056878658863578</v>
+        <v>0.03360285413374431</v>
       </c>
       <c r="M25">
-        <v>0.7438209092506725</v>
+        <v>0.8664200690089174</v>
       </c>
       <c r="N25">
-        <v>2.132341031889418</v>
+        <v>0.93942006011115</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2118183753330811</v>
+        <v>0.2425550065397317</v>
       </c>
       <c r="D2">
-        <v>0.03092264755263585</v>
+        <v>0.0515445347971486</v>
       </c>
       <c r="E2">
-        <v>0.05265059179922282</v>
+        <v>0.1653893945911129</v>
       </c>
       <c r="F2">
-        <v>1.663612776127934</v>
+        <v>0.7975301781975972</v>
       </c>
       <c r="G2">
-        <v>1.405584598658933</v>
+        <v>0.7166905429685784</v>
       </c>
       <c r="H2">
-        <v>0.9051063290191763</v>
+        <v>0.00019602251006412</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0004576744094619833</v>
       </c>
       <c r="J2">
-        <v>0.08937508846538478</v>
+        <v>0.5105081269735194</v>
       </c>
       <c r="K2">
-        <v>3.468671825284957</v>
+        <v>0.7715925947694515</v>
       </c>
       <c r="L2">
-        <v>0.03394359432903205</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7374773629962021</v>
+        <v>5.111453159196969</v>
       </c>
       <c r="N2">
-        <v>1.022829701371942</v>
+        <v>0.2126054930970298</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1962003369407483</v>
+        <v>0.2134777129689525</v>
       </c>
       <c r="D3">
-        <v>0.02801907129148162</v>
+        <v>0.04894530371734973</v>
       </c>
       <c r="E3">
-        <v>0.05108729505100307</v>
+        <v>0.1457116481580201</v>
       </c>
       <c r="F3">
-        <v>1.591236936793862</v>
+        <v>0.7479286281706052</v>
       </c>
       <c r="G3">
-        <v>1.336272102268779</v>
+        <v>0.6753980156084225</v>
       </c>
       <c r="H3">
-        <v>0.8827671737640799</v>
+        <v>0.0009906121103924193</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0009811181862340312</v>
       </c>
       <c r="J3">
-        <v>0.08927281020888245</v>
+        <v>0.4975553711753946</v>
       </c>
       <c r="K3">
-        <v>3.028634284547252</v>
+        <v>0.7265290089879599</v>
       </c>
       <c r="L3">
-        <v>0.03420708808954576</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6517547656880609</v>
+        <v>4.449542073111843</v>
       </c>
       <c r="N3">
-        <v>1.082455080170472</v>
+        <v>0.1873071112579865</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.186893813929899</v>
+        <v>0.1954892091837053</v>
       </c>
       <c r="D4">
-        <v>0.02624978372968556</v>
+        <v>0.04734599177927379</v>
       </c>
       <c r="E4">
-        <v>0.05018457674391286</v>
+        <v>0.1336120982172986</v>
       </c>
       <c r="F4">
-        <v>1.550080522045249</v>
+        <v>0.7183264381332251</v>
       </c>
       <c r="G4">
-        <v>1.296818034806279</v>
+        <v>0.6508298800214902</v>
       </c>
       <c r="H4">
-        <v>0.8707666067653435</v>
+        <v>0.001811466893075098</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001752879665593454</v>
       </c>
       <c r="J4">
-        <v>0.08933767950809113</v>
+        <v>0.4900864210431166</v>
       </c>
       <c r="K4">
-        <v>2.761264047355866</v>
+        <v>0.6991843191442157</v>
       </c>
       <c r="L4">
-        <v>0.03438473098102079</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5998080490433253</v>
+        <v>4.043228360896933</v>
       </c>
       <c r="N4">
-        <v>1.120525055626473</v>
+        <v>0.1718341132788197</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1831676437775656</v>
+        <v>0.1876169853775167</v>
       </c>
       <c r="D5">
-        <v>0.02553185733516017</v>
+        <v>0.04676015542518996</v>
       </c>
       <c r="E5">
-        <v>0.04983046928906276</v>
+        <v>0.1285593157475446</v>
       </c>
       <c r="F5">
-        <v>1.534082856813072</v>
+        <v>0.7053269765269619</v>
       </c>
       <c r="G5">
-        <v>1.281468550460474</v>
+        <v>0.6397573827130998</v>
       </c>
       <c r="H5">
-        <v>0.8662837282333413</v>
+        <v>0.002228474835188177</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002249073559815962</v>
       </c>
       <c r="J5">
-        <v>0.08939493200874793</v>
+        <v>0.4865200609497862</v>
       </c>
       <c r="K5">
-        <v>2.652928615995506</v>
+        <v>0.6868499990182855</v>
       </c>
       <c r="L5">
-        <v>0.03446108119587166</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5787942162663171</v>
+        <v>3.877595110662241</v>
       </c>
       <c r="N5">
-        <v>1.136396351036271</v>
+        <v>0.1655959678798737</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.182552785435945</v>
+        <v>0.1856916951747536</v>
       </c>
       <c r="D6">
-        <v>0.02541282275530321</v>
+        <v>0.04674513590963869</v>
       </c>
       <c r="E6">
-        <v>0.04977248376801313</v>
+        <v>0.1275788037584284</v>
       </c>
       <c r="F6">
-        <v>1.531471756988665</v>
+        <v>0.7017954057662905</v>
       </c>
       <c r="G6">
-        <v>1.278962312435539</v>
+        <v>0.6364139055209534</v>
       </c>
       <c r="H6">
-        <v>0.865563287714096</v>
+        <v>0.00230654777333561</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002436581867980792</v>
       </c>
       <c r="J6">
-        <v>0.08940626410230124</v>
+        <v>0.4851571777823693</v>
       </c>
       <c r="K6">
-        <v>2.634974607506052</v>
+        <v>0.6832639131856197</v>
       </c>
       <c r="L6">
-        <v>0.03447399745621116</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5753137382670772</v>
+        <v>3.850046759991642</v>
       </c>
       <c r="N6">
-        <v>1.139053090129862</v>
+        <v>0.1646290294766075</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1868432991755071</v>
+        <v>0.1936936168596333</v>
       </c>
       <c r="D7">
-        <v>0.026240089494177</v>
+        <v>0.04756415396191116</v>
       </c>
       <c r="E7">
-        <v>0.05017974620432675</v>
+        <v>0.1331573795257306</v>
       </c>
       <c r="F7">
-        <v>1.549861704024025</v>
+        <v>0.7143643644690485</v>
       </c>
       <c r="G7">
-        <v>1.296608143573721</v>
+        <v>0.646535426026432</v>
       </c>
       <c r="H7">
-        <v>0.8707045298787079</v>
+        <v>0.00182662495669228</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002010401139271423</v>
       </c>
       <c r="J7">
-        <v>0.08933832849131917</v>
+        <v>0.487914414287431</v>
       </c>
       <c r="K7">
-        <v>2.759800598420014</v>
+        <v>0.6947982966387158</v>
       </c>
       <c r="L7">
-        <v>0.03438574467056998</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5995240448811145</v>
+        <v>4.040872813330964</v>
       </c>
       <c r="N7">
-        <v>1.1207376662591</v>
+        <v>0.1719370902941577</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2063715079497825</v>
+        <v>0.2302912616355002</v>
       </c>
       <c r="D8">
-        <v>0.0299184817801077</v>
+        <v>0.05095464913309655</v>
       </c>
       <c r="E8">
-        <v>0.05209932215180935</v>
+        <v>0.1580887693665929</v>
       </c>
       <c r="F8">
-        <v>1.637944134034839</v>
+        <v>0.7752140839573585</v>
       </c>
       <c r="G8">
-        <v>1.38100885578983</v>
+        <v>0.6967780828303063</v>
       </c>
       <c r="H8">
-        <v>0.8970327164131504</v>
+        <v>0.0004039453798911907</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0008288774314184622</v>
       </c>
       <c r="J8">
-        <v>0.08931252375550613</v>
+        <v>0.503128755228758</v>
       </c>
       <c r="K8">
-        <v>3.31630788692712</v>
+        <v>0.7503730711210395</v>
       </c>
       <c r="L8">
-        <v>0.03403113820567061</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7077663351570251</v>
+        <v>4.882984067676148</v>
       </c>
       <c r="N8">
-        <v>1.043079583238548</v>
+        <v>0.204118098674229</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2471501866682786</v>
+        <v>0.304249830612406</v>
       </c>
       <c r="D9">
-        <v>0.03725572158869994</v>
+        <v>0.05717078176665069</v>
       </c>
       <c r="E9">
-        <v>0.05634723053919899</v>
+        <v>0.2076659800635596</v>
       </c>
       <c r="F9">
-        <v>1.839242575630109</v>
+        <v>0.9089894217794807</v>
       </c>
       <c r="G9">
-        <v>1.573701908755709</v>
+        <v>0.8098538093732657</v>
       </c>
       <c r="H9">
-        <v>0.9634505379832774</v>
+        <v>0.000472551610521732</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002036232496439361</v>
       </c>
       <c r="J9">
-        <v>0.09033776729352283</v>
+        <v>0.5409947704991112</v>
       </c>
       <c r="K9">
-        <v>4.434288339434147</v>
+        <v>0.8700392682529596</v>
       </c>
       <c r="L9">
-        <v>0.03346299247465279</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9263703874177978</v>
+        <v>6.537883907892478</v>
       </c>
       <c r="N9">
-        <v>0.9028393514651976</v>
+        <v>0.2675403057662322</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2789880790438417</v>
+        <v>0.3514981366751897</v>
       </c>
       <c r="D10">
-        <v>0.04274817279143406</v>
+        <v>0.06310068374509115</v>
       </c>
       <c r="E10">
-        <v>0.05980898677809598</v>
+        <v>0.2353498838994028</v>
       </c>
       <c r="F10">
-        <v>2.008394251345393</v>
+        <v>0.9925718050243688</v>
       </c>
       <c r="G10">
-        <v>1.73573465905713</v>
+        <v>0.875979196567144</v>
       </c>
       <c r="H10">
-        <v>1.023052049407823</v>
+        <v>0.002625628517038514</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.005739307265144156</v>
       </c>
       <c r="J10">
-        <v>0.09184249027754987</v>
+        <v>0.5605872229496214</v>
       </c>
       <c r="K10">
-        <v>5.278599147075226</v>
+        <v>0.9387313744352923</v>
       </c>
       <c r="L10">
-        <v>0.0331253894284167</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.092208023616223</v>
+        <v>7.758201662211263</v>
       </c>
       <c r="N10">
-        <v>0.8078495931530227</v>
+        <v>0.2997294010690155</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2939697081190502</v>
+        <v>0.3200340112345259</v>
       </c>
       <c r="D11">
-        <v>0.04527558731992798</v>
+        <v>0.07863807768190156</v>
       </c>
       <c r="E11">
-        <v>0.06146921539632899</v>
+        <v>0.1779741170877891</v>
       </c>
       <c r="F11">
-        <v>2.090915820280429</v>
+        <v>0.8684714509711142</v>
       </c>
       <c r="G11">
-        <v>1.814857361525782</v>
+        <v>0.7312201600151838</v>
       </c>
       <c r="H11">
-        <v>1.052957425356112</v>
+        <v>0.02129439537015188</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.007410695455330796</v>
       </c>
       <c r="J11">
-        <v>0.09271396586290592</v>
+        <v>0.4811374908618546</v>
       </c>
       <c r="K11">
-        <v>5.669339403048639</v>
+        <v>0.7997951876151106</v>
       </c>
       <c r="L11">
-        <v>0.03298972145972634</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.169126679788945</v>
+        <v>8.304612505452269</v>
       </c>
       <c r="N11">
-        <v>0.7665577824976904</v>
+        <v>0.1980620704050366</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2997228405511692</v>
+        <v>0.288138057236182</v>
       </c>
       <c r="D12">
-        <v>0.04623742172195477</v>
+        <v>0.0921968988218751</v>
       </c>
       <c r="E12">
-        <v>0.06211123972396138</v>
+        <v>0.1326345332434826</v>
       </c>
       <c r="F12">
-        <v>2.123054911550994</v>
+        <v>0.7578374091590803</v>
       </c>
       <c r="G12">
-        <v>1.845687604527029</v>
+        <v>0.6110441261129296</v>
       </c>
       <c r="H12">
-        <v>1.064724880630251</v>
+        <v>0.05973304536681212</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.007537944850005474</v>
       </c>
       <c r="J12">
-        <v>0.09307307469173765</v>
+        <v>0.4176457330236047</v>
       </c>
       <c r="K12">
-        <v>5.818413795862625</v>
+        <v>0.683292195929198</v>
       </c>
       <c r="L12">
-        <v>0.03294097973587107</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.198497698890151</v>
+        <v>8.507857401691354</v>
       </c>
       <c r="N12">
-        <v>0.7512142619600475</v>
+        <v>0.1255009144475991</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2984801061025735</v>
+        <v>0.2515751175616145</v>
       </c>
       <c r="D13">
-        <v>0.04603005149678552</v>
+        <v>0.1051858481847319</v>
       </c>
       <c r="E13">
-        <v>0.06197235763342945</v>
+        <v>0.09357278382766765</v>
       </c>
       <c r="F13">
-        <v>2.116092093954833</v>
+        <v>0.6451784744061158</v>
       </c>
       <c r="G13">
-        <v>1.83900761636886</v>
+        <v>0.4962759653269444</v>
       </c>
       <c r="H13">
-        <v>1.062170142820889</v>
+        <v>0.1149592617716451</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.006743060651531962</v>
       </c>
       <c r="J13">
-        <v>0.09299440222869038</v>
+        <v>0.3593370386254549</v>
       </c>
       <c r="K13">
-        <v>5.786256018856363</v>
+        <v>0.5709219629286295</v>
       </c>
       <c r="L13">
-        <v>0.03295135905034652</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.19216076176329</v>
+        <v>8.456146402968159</v>
       </c>
       <c r="N13">
-        <v>0.7545054559262958</v>
+        <v>0.07173563963901941</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2944413699886752</v>
+        <v>0.224024535591866</v>
       </c>
       <c r="D14">
-        <v>0.04535461895277848</v>
+        <v>0.1142727506355357</v>
       </c>
       <c r="E14">
-        <v>0.06152176158889588</v>
+        <v>0.07039374116572716</v>
       </c>
       <c r="F14">
-        <v>2.093541546810528</v>
+        <v>0.5660584255882384</v>
       </c>
       <c r="G14">
-        <v>1.817375836529834</v>
+        <v>0.4194983937251493</v>
       </c>
       <c r="H14">
-        <v>1.053916411192063</v>
+        <v>0.1638615955603768</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.005911351838747692</v>
       </c>
       <c r="J14">
-        <v>0.09274291325504791</v>
+        <v>0.3213313091928995</v>
       </c>
       <c r="K14">
-        <v>5.681580678605428</v>
+        <v>0.495088122946278</v>
       </c>
       <c r="L14">
-        <v>0.03298565832841582</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.171537979998092</v>
+        <v>8.304563155174037</v>
       </c>
       <c r="N14">
-        <v>0.7652894915829975</v>
+        <v>0.04564497425507241</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2919781935722767</v>
+        <v>0.2156732290659704</v>
       </c>
       <c r="D15">
-        <v>0.04494153572592552</v>
+        <v>0.1162257558149378</v>
       </c>
       <c r="E15">
-        <v>0.06124752742266182</v>
+        <v>0.06501398646141077</v>
       </c>
       <c r="F15">
-        <v>2.079847367676038</v>
+        <v>0.5446768118219438</v>
       </c>
       <c r="G15">
-        <v>1.804241635419999</v>
+        <v>0.3998150560966423</v>
       </c>
       <c r="H15">
-        <v>1.048919748545075</v>
+        <v>0.1761838471239372</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.005636157730649849</v>
       </c>
       <c r="J15">
-        <v>0.09259272828370868</v>
+        <v>0.3121232741999194</v>
       </c>
       <c r="K15">
-        <v>5.617613287834786</v>
+        <v>0.4754486733056567</v>
       </c>
       <c r="L15">
-        <v>0.03300701232373005</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.158938629464927</v>
+        <v>8.213237330694483</v>
       </c>
       <c r="N15">
-        <v>0.7719336822435086</v>
+        <v>0.04072396362690256</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2780197098078077</v>
+        <v>0.2030906663931376</v>
       </c>
       <c r="D16">
-        <v>0.04258363150144362</v>
+        <v>0.1106660005841604</v>
       </c>
       <c r="E16">
-        <v>0.05970229340321609</v>
+        <v>0.06230595542002959</v>
       </c>
       <c r="F16">
-        <v>2.003120787354419</v>
+        <v>0.5308318852672329</v>
       </c>
       <c r="G16">
-        <v>1.730680197464551</v>
+        <v>0.3939102613746712</v>
       </c>
       <c r="H16">
-        <v>1.021157294430878</v>
+        <v>0.1626323885700742</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.004183444093730948</v>
       </c>
       <c r="J16">
-        <v>0.09178948374120921</v>
+        <v>0.3147985479608195</v>
       </c>
       <c r="K16">
-        <v>5.253209983818977</v>
+        <v>0.4686958456340378</v>
       </c>
       <c r="L16">
-        <v>0.03313462077840068</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.087213534665388</v>
+        <v>7.695957208236962</v>
       </c>
       <c r="N16">
-        <v>0.8105881302097622</v>
+        <v>0.03987934888731814</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2695898994755339</v>
+        <v>0.2075686246599133</v>
       </c>
       <c r="D17">
-        <v>0.04114493806005015</v>
+        <v>0.1015174476999121</v>
       </c>
       <c r="E17">
-        <v>0.05877694061705085</v>
+        <v>0.07149752318657221</v>
       </c>
       <c r="F17">
-        <v>1.957539216501729</v>
+        <v>0.5613721586737697</v>
       </c>
       <c r="G17">
-        <v>1.687000115036824</v>
+        <v>0.4289231240644824</v>
       </c>
       <c r="H17">
-        <v>1.00486925415376</v>
+        <v>0.1244938835817209</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.003578493178395092</v>
       </c>
       <c r="J17">
-        <v>0.09134611202308207</v>
+        <v>0.3365180634754665</v>
       </c>
       <c r="K17">
-        <v>5.031469160554309</v>
+        <v>0.5024523731670953</v>
       </c>
       <c r="L17">
-        <v>0.03321753009090056</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.043612219650051</v>
+        <v>7.380912530234696</v>
       </c>
       <c r="N17">
-        <v>0.8348044161561461</v>
+        <v>0.05094972278475041</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2647876687883155</v>
+        <v>0.2294302699922213</v>
       </c>
       <c r="D18">
-        <v>0.04032011699160876</v>
+        <v>0.0888299181844161</v>
       </c>
       <c r="E18">
-        <v>0.058252677679409</v>
+        <v>0.09637048462623099</v>
       </c>
       <c r="F18">
-        <v>1.93184071337474</v>
+        <v>0.6392155767464942</v>
       </c>
       <c r="G18">
-        <v>1.662380109179367</v>
+        <v>0.5105834296251288</v>
       </c>
       <c r="H18">
-        <v>0.9957609151032329</v>
+        <v>0.07161788221035437</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.003213903663370488</v>
       </c>
       <c r="J18">
-        <v>0.09110854956265868</v>
+        <v>0.3807137612167253</v>
       </c>
       <c r="K18">
-        <v>4.904546498850607</v>
+        <v>0.5821394770118076</v>
       </c>
       <c r="L18">
-        <v>0.03326689920329162</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.018671003068583</v>
+        <v>7.202807162110446</v>
       </c>
       <c r="N18">
-        <v>0.8489125561368889</v>
+        <v>0.08357034896119586</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2631694426149949</v>
+        <v>0.2630413086530581</v>
       </c>
       <c r="D19">
-        <v>0.04004128922548489</v>
+        <v>0.07621502068854369</v>
       </c>
       <c r="E19">
-        <v>0.05807651092889721</v>
+        <v>0.1381891992280195</v>
       </c>
       <c r="F19">
-        <v>1.923226197084261</v>
+        <v>0.749531115510365</v>
       </c>
       <c r="G19">
-        <v>1.65412810829929</v>
+        <v>0.6264554272811438</v>
       </c>
       <c r="H19">
-        <v>0.9927204693201759</v>
+        <v>0.02662937362654105</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003557140924017155</v>
       </c>
       <c r="J19">
-        <v>0.09103104877140922</v>
+        <v>0.4407565025194629</v>
       </c>
       <c r="K19">
-        <v>4.86167422377639</v>
+        <v>0.6947215545794876</v>
       </c>
       <c r="L19">
-        <v>0.03328390196419839</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.010248989959834</v>
+        <v>7.146968090412656</v>
       </c>
       <c r="N19">
-        <v>0.8537196882427915</v>
+        <v>0.1466780134342756</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2704824106018719</v>
+        <v>0.3334474771561418</v>
       </c>
       <c r="D20">
-        <v>0.04129780816570161</v>
+        <v>0.06236408328530274</v>
       </c>
       <c r="E20">
-        <v>0.05887461333640509</v>
+        <v>0.2264707576855898</v>
       </c>
       <c r="F20">
-        <v>1.962337145283897</v>
+        <v>0.9575631818381112</v>
       </c>
       <c r="G20">
-        <v>1.691597190275871</v>
+        <v>0.8444246858238529</v>
       </c>
       <c r="H20">
-        <v>1.006575936982017</v>
+        <v>0.001867589251777435</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.005224751411577522</v>
       </c>
       <c r="J20">
-        <v>0.09139148803581421</v>
+        <v>0.5482272444830443</v>
       </c>
       <c r="K20">
-        <v>5.055008962824786</v>
+        <v>0.9064714517500221</v>
       </c>
       <c r="L20">
-        <v>0.03320852979284084</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.048239249471628</v>
+        <v>7.436557788778885</v>
       </c>
       <c r="N20">
-        <v>0.8322078500258625</v>
+        <v>0.2911902447093127</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2956254059851062</v>
+        <v>0.3800335959673475</v>
       </c>
       <c r="D21">
-        <v>0.04555287557731447</v>
+        <v>0.06484792594385169</v>
       </c>
       <c r="E21">
-        <v>0.06165374191768436</v>
+        <v>0.2615310189593885</v>
       </c>
       <c r="F21">
-        <v>2.100140284830331</v>
+        <v>1.055479765788988</v>
       </c>
       <c r="G21">
-        <v>1.823705289886846</v>
+        <v>0.9317278921679417</v>
       </c>
       <c r="H21">
-        <v>1.056328359455335</v>
+        <v>0.004225083992133283</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.009089564205257972</v>
       </c>
       <c r="J21">
-        <v>0.09281597311141354</v>
+        <v>0.581820776028664</v>
       </c>
       <c r="K21">
-        <v>5.71229495997045</v>
+        <v>0.9935346177009592</v>
       </c>
       <c r="L21">
-        <v>0.03297551185137504</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.177588516522462</v>
+        <v>8.377789681791512</v>
       </c>
       <c r="N21">
-        <v>0.7621138703153019</v>
+        <v>0.3395020816559935</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3125280554765197</v>
+        <v>0.4098130580906059</v>
       </c>
       <c r="D22">
-        <v>0.04836187042630513</v>
+        <v>0.06678979364977522</v>
       </c>
       <c r="E22">
-        <v>0.06354833251876357</v>
+        <v>0.2806484997663645</v>
       </c>
       <c r="F22">
-        <v>2.195437908597427</v>
+        <v>1.116461846763912</v>
       </c>
       <c r="G22">
-        <v>1.915154722993378</v>
+        <v>0.9853065326654331</v>
       </c>
       <c r="H22">
-        <v>1.091448677763452</v>
+        <v>0.006281963803726032</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01198504775243592</v>
       </c>
       <c r="J22">
-        <v>0.09391777170372251</v>
+        <v>0.6020557786630576</v>
       </c>
       <c r="K22">
-        <v>6.148419043677563</v>
+        <v>1.046746945569581</v>
       </c>
       <c r="L22">
-        <v>0.03283859922786192</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.263562395482523</v>
+        <v>8.995028337297697</v>
       </c>
       <c r="N22">
-        <v>0.7180190940066247</v>
+        <v>0.3633119663664246</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.303460819234175</v>
+        <v>0.39598770014004</v>
       </c>
       <c r="D23">
-        <v>0.04685987060879171</v>
+        <v>0.06546003452835691</v>
       </c>
       <c r="E23">
-        <v>0.06252961970161408</v>
+        <v>0.2709148114033511</v>
       </c>
       <c r="F23">
-        <v>2.144065045296614</v>
+        <v>1.088280103676297</v>
       </c>
       <c r="G23">
-        <v>1.865846773788377</v>
+        <v>0.9615009856176613</v>
       </c>
       <c r="H23">
-        <v>1.072451173177797</v>
+        <v>0.00515308295057415</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01013320927019645</v>
       </c>
       <c r="J23">
-        <v>0.0933132984686651</v>
+        <v>0.593675202109452</v>
       </c>
       <c r="K23">
-        <v>5.914997616488222</v>
+        <v>1.023322041179313</v>
       </c>
       <c r="L23">
-        <v>0.03291024402546938</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.217533948607695</v>
+        <v>8.665627923326383</v>
       </c>
       <c r="N23">
-        <v>0.7413903144918113</v>
+        <v>0.3503549023255914</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2700787693251243</v>
+        <v>0.3405265865338549</v>
       </c>
       <c r="D24">
-        <v>0.0412286884626667</v>
+        <v>0.0608918288851612</v>
       </c>
       <c r="E24">
-        <v>0.05883043148565292</v>
+        <v>0.2334999340621025</v>
       </c>
       <c r="F24">
-        <v>1.960166429223378</v>
+        <v>0.9776716069897589</v>
       </c>
       <c r="G24">
-        <v>1.689517325965625</v>
+        <v>0.8666892171443408</v>
       </c>
       <c r="H24">
-        <v>1.005803551766661</v>
+        <v>0.001834402107037114</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.004827668674266761</v>
       </c>
       <c r="J24">
-        <v>0.09137091970148603</v>
+        <v>0.5596568008960929</v>
       </c>
       <c r="K24">
-        <v>5.04436488806158</v>
+        <v>0.9283099067366507</v>
       </c>
       <c r="L24">
-        <v>0.03321259352598283</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.046146979878515</v>
+        <v>7.422506397286952</v>
       </c>
       <c r="N24">
-        <v>0.8333811798624948</v>
+        <v>0.3020610653695286</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2358169560169756</v>
+        <v>0.2811793093094508</v>
       </c>
       <c r="D25">
-        <v>0.03525499186779513</v>
+        <v>0.05592073153469101</v>
       </c>
       <c r="E25">
-        <v>0.05514177983319435</v>
+        <v>0.1935193118918903</v>
       </c>
       <c r="F25">
-        <v>1.781351960565217</v>
+        <v>0.8649685549190878</v>
       </c>
       <c r="G25">
-        <v>1.518283028776693</v>
+        <v>0.7708460911846799</v>
       </c>
       <c r="H25">
-        <v>0.9437247792965593</v>
+        <v>0.000110526374088149</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001633520312875447</v>
       </c>
       <c r="J25">
-        <v>0.08993589086077236</v>
+        <v>0.5264126125374418</v>
       </c>
       <c r="K25">
-        <v>4.12833794658286</v>
+        <v>0.8295712559634225</v>
       </c>
       <c r="L25">
-        <v>0.03360285413374431</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8664200690089174</v>
+        <v>6.089149317757858</v>
       </c>
       <c r="N25">
-        <v>0.93942006011115</v>
+        <v>0.2506329298792025</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2425550065397317</v>
+        <v>0.1679079724431602</v>
       </c>
       <c r="D2">
-        <v>0.0515445347971486</v>
+        <v>0.06061865676002043</v>
       </c>
       <c r="E2">
-        <v>0.1653893945911129</v>
+        <v>0.1499743389559178</v>
       </c>
       <c r="F2">
-        <v>0.7975301781975972</v>
+        <v>0.6464414641293885</v>
       </c>
       <c r="G2">
-        <v>0.7166905429685784</v>
+        <v>0.5348056932592442</v>
       </c>
       <c r="H2">
-        <v>0.00019602251006412</v>
+        <v>9.494257376974069E-05</v>
       </c>
       <c r="I2">
-        <v>0.0004576744094619833</v>
+        <v>0.0005471958571465763</v>
       </c>
       <c r="J2">
-        <v>0.5105081269735194</v>
+        <v>0.4555555322440057</v>
       </c>
       <c r="K2">
-        <v>0.7715925947694515</v>
+        <v>0.5983335805242973</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2789121687866185</v>
       </c>
       <c r="M2">
-        <v>5.111453159196969</v>
+        <v>0.1786543895676012</v>
       </c>
       <c r="N2">
-        <v>0.2126054930970298</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>5.114794613212041</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2254722758434724</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2134777129689525</v>
+        <v>0.1486008265643193</v>
       </c>
       <c r="D3">
-        <v>0.04894530371734973</v>
+        <v>0.05583151658110097</v>
       </c>
       <c r="E3">
-        <v>0.1457116481580201</v>
+        <v>0.1329201008336547</v>
       </c>
       <c r="F3">
-        <v>0.7479286281706052</v>
+        <v>0.616445936045011</v>
       </c>
       <c r="G3">
-        <v>0.6753980156084225</v>
+        <v>0.51612441356869</v>
       </c>
       <c r="H3">
-        <v>0.0009906121103924193</v>
+        <v>0.0006369719926586637</v>
       </c>
       <c r="I3">
-        <v>0.0009811181862340312</v>
+        <v>0.0006926326960456919</v>
       </c>
       <c r="J3">
-        <v>0.4975553711753946</v>
+        <v>0.4484370780657514</v>
       </c>
       <c r="K3">
-        <v>0.7265290089879599</v>
+        <v>0.5742407750167686</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2769987371969123</v>
       </c>
       <c r="M3">
-        <v>4.449542073111843</v>
+        <v>0.163198883820872</v>
       </c>
       <c r="N3">
-        <v>0.1873071112579865</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>4.454813620720586</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1994698877942014</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1954892091837053</v>
+        <v>0.136616117650874</v>
       </c>
       <c r="D4">
-        <v>0.04734599177927379</v>
+        <v>0.05291560038344301</v>
       </c>
       <c r="E4">
-        <v>0.1336120982172986</v>
+        <v>0.1224005139162081</v>
       </c>
       <c r="F4">
-        <v>0.7183264381332251</v>
+        <v>0.5986175956869673</v>
       </c>
       <c r="G4">
-        <v>0.6508298800214902</v>
+        <v>0.5053951689189802</v>
       </c>
       <c r="H4">
-        <v>0.001811466893075098</v>
+        <v>0.001230738675551457</v>
       </c>
       <c r="I4">
-        <v>0.001752879665593454</v>
+        <v>0.00111573757292982</v>
       </c>
       <c r="J4">
-        <v>0.4900864210431166</v>
+        <v>0.4441776974230294</v>
       </c>
       <c r="K4">
-        <v>0.6991843191442157</v>
+        <v>0.5595225965927924</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2755867882112355</v>
       </c>
       <c r="M4">
-        <v>4.043228360896933</v>
+        <v>0.1545393450763619</v>
       </c>
       <c r="N4">
-        <v>0.1718341132788197</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4.049353384452957</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1835566551033736</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1876169853775167</v>
+        <v>0.1313126980636383</v>
       </c>
       <c r="D5">
-        <v>0.04676015542518996</v>
+        <v>0.05181155610393517</v>
       </c>
       <c r="E5">
-        <v>0.1285593157475446</v>
+        <v>0.1179994467180627</v>
       </c>
       <c r="F5">
-        <v>0.7053269765269619</v>
+        <v>0.590560009122278</v>
       </c>
       <c r="G5">
-        <v>0.6397573827130998</v>
+        <v>0.5002174872598601</v>
       </c>
       <c r="H5">
-        <v>0.002228474835188177</v>
+        <v>0.001537336022890412</v>
       </c>
       <c r="I5">
-        <v>0.002249073559815962</v>
+        <v>0.001452959728426073</v>
       </c>
       <c r="J5">
-        <v>0.4865200609497862</v>
+        <v>0.4419409754049326</v>
       </c>
       <c r="K5">
-        <v>0.6868499990182855</v>
+        <v>0.5525401651098107</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2745127420341049</v>
       </c>
       <c r="M5">
-        <v>3.877595110662241</v>
+        <v>0.150903034103802</v>
       </c>
       <c r="N5">
-        <v>0.1655959678798737</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>3.883997490627792</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1771341586203619</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1856916951747536</v>
+        <v>0.1299623255128353</v>
       </c>
       <c r="D6">
-        <v>0.04674513590963869</v>
+        <v>0.05172532158410803</v>
       </c>
       <c r="E6">
-        <v>0.1275788037584284</v>
+        <v>0.1171449754853704</v>
       </c>
       <c r="F6">
-        <v>0.7017954057662905</v>
+        <v>0.5880971281423655</v>
       </c>
       <c r="G6">
-        <v>0.6364139055209534</v>
+        <v>0.498176488758773</v>
       </c>
       <c r="H6">
-        <v>0.00230654777333561</v>
+        <v>0.001594991829352854</v>
       </c>
       <c r="I6">
-        <v>0.002436581867980792</v>
+        <v>0.00162688853571602</v>
       </c>
       <c r="J6">
-        <v>0.4851571777823693</v>
+        <v>0.4409288470155133</v>
       </c>
       <c r="K6">
-        <v>0.6832639131856197</v>
+        <v>0.5501636435339918</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2737962607060425</v>
       </c>
       <c r="M6">
-        <v>3.850046759991642</v>
+        <v>0.1499302317740714</v>
       </c>
       <c r="N6">
-        <v>0.1646290294766075</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>3.856494658337851</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1761320410870653</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1936936168596333</v>
+        <v>0.1356156169398162</v>
       </c>
       <c r="D7">
-        <v>0.04756415396191116</v>
+        <v>0.05332909553809628</v>
       </c>
       <c r="E7">
-        <v>0.1331573795257306</v>
+        <v>0.1220827867729568</v>
       </c>
       <c r="F7">
-        <v>0.7143643644690485</v>
+        <v>0.5935498776726007</v>
       </c>
       <c r="G7">
-        <v>0.646535426026432</v>
+        <v>0.5043971715790292</v>
       </c>
       <c r="H7">
-        <v>0.00182662495669228</v>
+        <v>0.001244681215692767</v>
       </c>
       <c r="I7">
-        <v>0.002010401139271423</v>
+        <v>0.001411695267682589</v>
       </c>
       <c r="J7">
-        <v>0.487914414287431</v>
+        <v>0.4368228753339025</v>
       </c>
       <c r="K7">
-        <v>0.6947982966387158</v>
+        <v>0.5546252476306464</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2735030883260308</v>
       </c>
       <c r="M7">
-        <v>4.040872813330964</v>
+        <v>0.1529477933857386</v>
       </c>
       <c r="N7">
-        <v>0.1719370902941577</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>4.046950465680482</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1835662026323277</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2302912616355002</v>
+        <v>0.1607459672909357</v>
       </c>
       <c r="D8">
-        <v>0.05095464913309655</v>
+        <v>0.05988271282229363</v>
       </c>
       <c r="E8">
-        <v>0.1580887693665929</v>
+        <v>0.1439163569513369</v>
       </c>
       <c r="F8">
-        <v>0.7752140839573585</v>
+        <v>0.6257446683413193</v>
       </c>
       <c r="G8">
-        <v>0.6967780828303063</v>
+        <v>0.5317246407919356</v>
       </c>
       <c r="H8">
-        <v>0.0004039453798911907</v>
+        <v>0.0002332298369036589</v>
       </c>
       <c r="I8">
-        <v>0.0008288774314184622</v>
+        <v>0.0008651145664462234</v>
       </c>
       <c r="J8">
-        <v>0.503128755228758</v>
+        <v>0.432610991060173</v>
       </c>
       <c r="K8">
-        <v>0.7503730711210395</v>
+        <v>0.5807726964175188</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2745386756307866</v>
       </c>
       <c r="M8">
-        <v>4.882984067676148</v>
+        <v>0.1699683565848211</v>
       </c>
       <c r="N8">
-        <v>0.204118098674229</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>4.886858726143942</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2164666903750856</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.304249830612406</v>
+        <v>0.2102065103002246</v>
       </c>
       <c r="D9">
-        <v>0.05717078176665069</v>
+        <v>0.07185265220009995</v>
       </c>
       <c r="E9">
-        <v>0.2076659800635596</v>
+        <v>0.1867589144443258</v>
       </c>
       <c r="F9">
-        <v>0.9089894217794807</v>
+        <v>0.7064427392650288</v>
       </c>
       <c r="G9">
-        <v>0.8098538093732657</v>
+        <v>0.5892729080495371</v>
       </c>
       <c r="H9">
-        <v>0.000472551610521732</v>
+        <v>0.0004723701066273733</v>
       </c>
       <c r="I9">
-        <v>0.002036232496439361</v>
+        <v>0.002222114670584752</v>
       </c>
       <c r="J9">
-        <v>0.5409947704991112</v>
+        <v>0.4482140493062872</v>
       </c>
       <c r="K9">
-        <v>0.8700392682529596</v>
+        <v>0.6441971522157459</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2794013673933691</v>
       </c>
       <c r="M9">
-        <v>6.537883907892478</v>
+        <v>0.2139435524266844</v>
       </c>
       <c r="N9">
-        <v>0.2675403057662322</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>6.53449951088254</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2815056649994432</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3514981366751897</v>
+        <v>0.2441041341143517</v>
       </c>
       <c r="D10">
-        <v>0.06310068374509115</v>
+        <v>0.08341350692028016</v>
       </c>
       <c r="E10">
-        <v>0.2353498838994028</v>
+        <v>0.2105836456455634</v>
       </c>
       <c r="F10">
-        <v>0.9925718050243688</v>
+        <v>0.7443149407764622</v>
       </c>
       <c r="G10">
-        <v>0.875979196567144</v>
+        <v>0.6348437255553279</v>
       </c>
       <c r="H10">
-        <v>0.002625628517038514</v>
+        <v>0.002290388298603396</v>
       </c>
       <c r="I10">
-        <v>0.005739307265144156</v>
+        <v>0.005299068193218126</v>
       </c>
       <c r="J10">
-        <v>0.5605872229496214</v>
+        <v>0.4226832588698244</v>
       </c>
       <c r="K10">
-        <v>0.9387313744352923</v>
+        <v>0.6684398383315369</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2735817790039192</v>
       </c>
       <c r="M10">
-        <v>7.758201662211263</v>
+        <v>0.2414637921000917</v>
       </c>
       <c r="N10">
-        <v>0.2997294010690155</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>7.746624389418059</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3137666951377014</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3200340112345259</v>
+        <v>0.230076664145443</v>
       </c>
       <c r="D11">
-        <v>0.07863807768190156</v>
+        <v>0.1050211959886127</v>
       </c>
       <c r="E11">
-        <v>0.1779741170877891</v>
+        <v>0.1588501338969266</v>
       </c>
       <c r="F11">
-        <v>0.8684714509711142</v>
+        <v>0.6292124969918049</v>
       </c>
       <c r="G11">
-        <v>0.7312201600151838</v>
+        <v>0.5539042666982965</v>
       </c>
       <c r="H11">
-        <v>0.02129439537015188</v>
+        <v>0.02086385498287413</v>
       </c>
       <c r="I11">
-        <v>0.007410695455330796</v>
+        <v>0.006801863364826133</v>
       </c>
       <c r="J11">
-        <v>0.4811374908618546</v>
+        <v>0.3150089264143503</v>
       </c>
       <c r="K11">
-        <v>0.7997951876151106</v>
+        <v>0.5519853853774208</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2263857699891467</v>
       </c>
       <c r="M11">
-        <v>8.304612505452269</v>
+        <v>0.2029201762316362</v>
       </c>
       <c r="N11">
-        <v>0.1980620704050366</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>8.29024702298608</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2072033327598533</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.288138057236182</v>
+        <v>0.2126162845804771</v>
       </c>
       <c r="D12">
-        <v>0.0921968988218751</v>
+        <v>0.1215716854510589</v>
       </c>
       <c r="E12">
-        <v>0.1326345332434826</v>
+        <v>0.1180773469881977</v>
       </c>
       <c r="F12">
-        <v>0.7578374091590803</v>
+        <v>0.5408330214456853</v>
       </c>
       <c r="G12">
-        <v>0.6110441261129296</v>
+        <v>0.4765249909601437</v>
       </c>
       <c r="H12">
-        <v>0.05973304536681212</v>
+        <v>0.05931978023449602</v>
       </c>
       <c r="I12">
-        <v>0.007537944850005474</v>
+        <v>0.006907782243747995</v>
       </c>
       <c r="J12">
-        <v>0.4176457330236047</v>
+        <v>0.2601819195856052</v>
       </c>
       <c r="K12">
-        <v>0.683292195929198</v>
+        <v>0.4662632865432741</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1947967338704935</v>
       </c>
       <c r="M12">
-        <v>8.507857401691354</v>
+        <v>0.1707214413319704</v>
       </c>
       <c r="N12">
-        <v>0.1255009144475991</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>8.493255226383894</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1313197193141278</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2515751175616145</v>
+        <v>0.1889857202664729</v>
       </c>
       <c r="D13">
-        <v>0.1051858481847319</v>
+        <v>0.1343408030304403</v>
       </c>
       <c r="E13">
-        <v>0.09357278382766765</v>
+        <v>0.08302541439825006</v>
       </c>
       <c r="F13">
-        <v>0.6451784744061158</v>
+        <v>0.4647596626779773</v>
       </c>
       <c r="G13">
-        <v>0.4962759653269444</v>
+        <v>0.3889702405656692</v>
       </c>
       <c r="H13">
-        <v>0.1149592617716451</v>
+        <v>0.1146511569425854</v>
       </c>
       <c r="I13">
-        <v>0.006743060651531962</v>
+        <v>0.006306493352230547</v>
       </c>
       <c r="J13">
-        <v>0.3593370386254549</v>
+        <v>0.2366629925962798</v>
       </c>
       <c r="K13">
-        <v>0.5709219629286295</v>
+        <v>0.3949531495801111</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1708000750749612</v>
       </c>
       <c r="M13">
-        <v>8.456146402968159</v>
+        <v>0.1407562393515072</v>
       </c>
       <c r="N13">
-        <v>0.07173563963901941</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>8.44355285530861</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.07515908977531538</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.224024535591866</v>
+        <v>0.1698784004139782</v>
       </c>
       <c r="D14">
-        <v>0.1142727506355357</v>
+        <v>0.1416107095051302</v>
       </c>
       <c r="E14">
-        <v>0.07039374116572716</v>
+        <v>0.06238738898939467</v>
       </c>
       <c r="F14">
-        <v>0.5660584255882384</v>
+        <v>0.416072693775547</v>
       </c>
       <c r="G14">
-        <v>0.4194983937251493</v>
+        <v>0.3257197354997885</v>
       </c>
       <c r="H14">
-        <v>0.1638615955603768</v>
+        <v>0.1636496074997495</v>
       </c>
       <c r="I14">
-        <v>0.005911351838747692</v>
+        <v>0.005696281078575893</v>
       </c>
       <c r="J14">
-        <v>0.3213313091928995</v>
+        <v>0.2302552595404421</v>
       </c>
       <c r="K14">
-        <v>0.495088122946278</v>
+        <v>0.3507929438127562</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1568049717043287</v>
       </c>
       <c r="M14">
-        <v>8.304563155174037</v>
+        <v>0.1208691714010399</v>
       </c>
       <c r="N14">
-        <v>0.04564497425507241</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>8.294270087620134</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.04775875571034049</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2156732290659704</v>
+        <v>0.1636172269366512</v>
       </c>
       <c r="D15">
-        <v>0.1162257558149378</v>
+        <v>0.1424706916916421</v>
       </c>
       <c r="E15">
-        <v>0.06501398646141077</v>
+        <v>0.0576278807694397</v>
       </c>
       <c r="F15">
-        <v>0.5446768118219438</v>
+        <v>0.4046903877671468</v>
       </c>
       <c r="G15">
-        <v>0.3998150560966423</v>
+        <v>0.3078833689251042</v>
       </c>
       <c r="H15">
-        <v>0.1761838471239372</v>
+        <v>0.1760098237617598</v>
       </c>
       <c r="I15">
-        <v>0.005636157730649849</v>
+        <v>0.005533027317630612</v>
       </c>
       <c r="J15">
-        <v>0.3121232741999194</v>
+        <v>0.232250207782279</v>
       </c>
       <c r="K15">
-        <v>0.4754486733056567</v>
+        <v>0.3408179654227617</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1539996584898873</v>
       </c>
       <c r="M15">
-        <v>8.213237330694483</v>
+        <v>0.1158015290578192</v>
       </c>
       <c r="N15">
-        <v>0.04072396362690256</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>8.203948838010149</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.04260963484527025</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2030906663931376</v>
+        <v>0.1512609585487326</v>
       </c>
       <c r="D16">
-        <v>0.1106660005841604</v>
+        <v>0.1317338796835088</v>
       </c>
       <c r="E16">
-        <v>0.06230595542002959</v>
+        <v>0.05518431795090706</v>
       </c>
       <c r="F16">
-        <v>0.5308318852672329</v>
+        <v>0.4131675017282745</v>
       </c>
       <c r="G16">
-        <v>0.3939102613746712</v>
+        <v>0.290139831306945</v>
       </c>
       <c r="H16">
-        <v>0.1626323885700742</v>
+        <v>0.1625870921112949</v>
       </c>
       <c r="I16">
-        <v>0.004183444093730948</v>
+        <v>0.004413053166210545</v>
       </c>
       <c r="J16">
-        <v>0.3147985479608195</v>
+        <v>0.2682998737334827</v>
       </c>
       <c r="K16">
-        <v>0.4686958456340378</v>
+        <v>0.3511047804951986</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1610257336667047</v>
       </c>
       <c r="M16">
-        <v>7.695957208236962</v>
+        <v>0.1146406116557017</v>
       </c>
       <c r="N16">
-        <v>0.03987934888731814</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>7.690684242811187</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.04243383314017279</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2075686246599133</v>
+        <v>0.1519151460268233</v>
       </c>
       <c r="D17">
-        <v>0.1015174476999121</v>
+        <v>0.1203272595492564</v>
       </c>
       <c r="E17">
-        <v>0.07149752318657221</v>
+        <v>0.06328916019185016</v>
       </c>
       <c r="F17">
-        <v>0.5613721586737697</v>
+        <v>0.4442235627488742</v>
       </c>
       <c r="G17">
-        <v>0.4289231240644824</v>
+        <v>0.3103695336957344</v>
       </c>
       <c r="H17">
-        <v>0.1244938835817209</v>
+        <v>0.1244859561065823</v>
       </c>
       <c r="I17">
-        <v>0.003578493178395092</v>
+        <v>0.003931053680674701</v>
       </c>
       <c r="J17">
-        <v>0.3365180634754665</v>
+        <v>0.2999636117345617</v>
       </c>
       <c r="K17">
-        <v>0.5024523731670953</v>
+        <v>0.3814475243846189</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1740666717766288</v>
       </c>
       <c r="M17">
-        <v>7.380912530234696</v>
+        <v>0.1234378411485899</v>
       </c>
       <c r="N17">
-        <v>0.05094972278475041</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>7.377333977872524</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.05474313821484245</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2294302699922213</v>
+        <v>0.1645919813300623</v>
       </c>
       <c r="D18">
-        <v>0.0888299181844161</v>
+        <v>0.1067444183763087</v>
       </c>
       <c r="E18">
-        <v>0.09637048462623099</v>
+        <v>0.08541813531180509</v>
       </c>
       <c r="F18">
-        <v>0.6392155767464942</v>
+        <v>0.5056717767594208</v>
       </c>
       <c r="G18">
-        <v>0.5105834296251288</v>
+        <v>0.3663700984344729</v>
       </c>
       <c r="H18">
-        <v>0.07161788221035437</v>
+        <v>0.07161412045048365</v>
       </c>
       <c r="I18">
-        <v>0.003213903663370488</v>
+        <v>0.003536669868355879</v>
       </c>
       <c r="J18">
-        <v>0.3807137612167253</v>
+        <v>0.3392244861433724</v>
       </c>
       <c r="K18">
-        <v>0.5821394770118076</v>
+        <v>0.4401078045343709</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1967535093991764</v>
       </c>
       <c r="M18">
-        <v>7.202807162110446</v>
+        <v>0.1444042906088683</v>
       </c>
       <c r="N18">
-        <v>0.08357034896119586</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>7.199439998132959</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.08952189528963572</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2630413086530581</v>
+        <v>0.1849697081753732</v>
       </c>
       <c r="D19">
-        <v>0.07621502068854369</v>
+        <v>0.09379784987569195</v>
       </c>
       <c r="E19">
-        <v>0.1381891992280195</v>
+        <v>0.122964092846189</v>
       </c>
       <c r="F19">
-        <v>0.749531115510365</v>
+        <v>0.5876220841208948</v>
       </c>
       <c r="G19">
-        <v>0.6264554272811438</v>
+        <v>0.4470852716054026</v>
       </c>
       <c r="H19">
-        <v>0.02662937362654105</v>
+        <v>0.02660674983221156</v>
       </c>
       <c r="I19">
-        <v>0.003557140924017155</v>
+        <v>0.003852212177839931</v>
       </c>
       <c r="J19">
-        <v>0.4407565025194629</v>
+        <v>0.3843856939248838</v>
       </c>
       <c r="K19">
-        <v>0.6947215545794876</v>
+        <v>0.5187371127839384</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2260230526433418</v>
       </c>
       <c r="M19">
-        <v>7.146968090412656</v>
+        <v>0.174211997355247</v>
       </c>
       <c r="N19">
-        <v>0.1466780134342756</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>7.142665704581646</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1556904176850082</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3334474771561418</v>
+        <v>0.2298409475587135</v>
       </c>
       <c r="D20">
-        <v>0.06236408328530274</v>
+        <v>0.08069351158742677</v>
       </c>
       <c r="E20">
-        <v>0.2264707576855898</v>
+        <v>0.2026548355829263</v>
       </c>
       <c r="F20">
-        <v>0.9575631818381112</v>
+        <v>0.7306964279047747</v>
       </c>
       <c r="G20">
-        <v>0.8444246858238529</v>
+        <v>0.6033377663744233</v>
       </c>
       <c r="H20">
-        <v>0.001867589251777435</v>
+        <v>0.00166916045585852</v>
       </c>
       <c r="I20">
-        <v>0.005224751411577522</v>
+        <v>0.005197496620501951</v>
       </c>
       <c r="J20">
-        <v>0.5482272444830443</v>
+        <v>0.442466488236704</v>
       </c>
       <c r="K20">
-        <v>0.9064714517500221</v>
+        <v>0.6565933133097914</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2731430929405363</v>
       </c>
       <c r="M20">
-        <v>7.436557788778885</v>
+        <v>0.2318858455877688</v>
       </c>
       <c r="N20">
-        <v>0.2911902447093127</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>7.427784724732078</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3054488423638162</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3800335959673475</v>
+        <v>0.2691792224163834</v>
       </c>
       <c r="D21">
-        <v>0.06484792594385169</v>
+        <v>0.09090336972583657</v>
       </c>
       <c r="E21">
-        <v>0.2615310189593885</v>
+        <v>0.2349615107811047</v>
       </c>
       <c r="F21">
-        <v>1.055479765788988</v>
+        <v>0.7499718183225639</v>
       </c>
       <c r="G21">
-        <v>0.9317278921679417</v>
+        <v>0.7122706205312994</v>
       </c>
       <c r="H21">
-        <v>0.004225083992133283</v>
+        <v>0.003500387163756669</v>
       </c>
       <c r="I21">
-        <v>0.009089564205257972</v>
+        <v>0.008109326013027385</v>
       </c>
       <c r="J21">
-        <v>0.581820776028664</v>
+        <v>0.3472578154911616</v>
       </c>
       <c r="K21">
-        <v>0.9935346177009592</v>
+        <v>0.6716976224061852</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2674704495911797</v>
       </c>
       <c r="M21">
-        <v>8.377789681791512</v>
+        <v>0.2524796359378172</v>
       </c>
       <c r="N21">
-        <v>0.3395020816559935</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>8.359533349223796</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3530629715879314</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4098130580906059</v>
+        <v>0.2956679203336705</v>
       </c>
       <c r="D22">
-        <v>0.06678979364977522</v>
+        <v>0.09841287245628649</v>
       </c>
       <c r="E22">
-        <v>0.2806484997663645</v>
+        <v>0.2527514120772594</v>
       </c>
       <c r="F22">
-        <v>1.116461846763912</v>
+        <v>0.7577933451938748</v>
       </c>
       <c r="G22">
-        <v>0.9853065326654331</v>
+        <v>0.7886244219770333</v>
       </c>
       <c r="H22">
-        <v>0.006281963803726032</v>
+        <v>0.005079318470255445</v>
       </c>
       <c r="I22">
-        <v>0.01198504775243592</v>
+        <v>0.01009297807646892</v>
       </c>
       <c r="J22">
-        <v>0.6020557786630576</v>
+        <v>0.2886398500330571</v>
       </c>
       <c r="K22">
-        <v>1.046746945569581</v>
+        <v>0.6769479844858495</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.262151914611934</v>
       </c>
       <c r="M22">
-        <v>8.995028337297697</v>
+        <v>0.2645694256688529</v>
       </c>
       <c r="N22">
-        <v>0.3633119663664246</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>8.969745418430534</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3759740092324932</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.39598770014004</v>
+        <v>0.2820394296805517</v>
       </c>
       <c r="D23">
-        <v>0.06546003452835691</v>
+        <v>0.09348202663621663</v>
       </c>
       <c r="E23">
-        <v>0.2709148114033511</v>
+        <v>0.2434293549437214</v>
       </c>
       <c r="F23">
-        <v>1.088280103676297</v>
+        <v>0.7616700990415382</v>
       </c>
       <c r="G23">
-        <v>0.9615009856176613</v>
+        <v>0.7444445927440029</v>
       </c>
       <c r="H23">
-        <v>0.00515308295057415</v>
+        <v>0.004223731269326958</v>
       </c>
       <c r="I23">
-        <v>0.01013320927019645</v>
+        <v>0.0086928217386264</v>
       </c>
       <c r="J23">
-        <v>0.593675202109452</v>
+        <v>0.3305195475437728</v>
       </c>
       <c r="K23">
-        <v>1.023322041179313</v>
+        <v>0.6814883831400138</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2675152318814185</v>
       </c>
       <c r="M23">
-        <v>8.665627923326383</v>
+        <v>0.2610774885904235</v>
       </c>
       <c r="N23">
-        <v>0.3503549023255914</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>8.644333819768406</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3637258841057758</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3405265865338549</v>
+        <v>0.2344288718489764</v>
       </c>
       <c r="D24">
-        <v>0.0608918288851612</v>
+        <v>0.07892230978274029</v>
       </c>
       <c r="E24">
-        <v>0.2334999340621025</v>
+        <v>0.2089996848001903</v>
       </c>
       <c r="F24">
-        <v>0.9776716069897589</v>
+        <v>0.7461500467879176</v>
       </c>
       <c r="G24">
-        <v>0.8666892171443408</v>
+        <v>0.6191506539578455</v>
       </c>
       <c r="H24">
-        <v>0.001834402107037114</v>
+        <v>0.00162618643953949</v>
       </c>
       <c r="I24">
-        <v>0.004827668674266761</v>
+        <v>0.00468599449806284</v>
       </c>
       <c r="J24">
-        <v>0.5596568008960929</v>
+        <v>0.451706254364467</v>
       </c>
       <c r="K24">
-        <v>0.9283099067366507</v>
+        <v>0.6724891344969919</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.279079549499663</v>
       </c>
       <c r="M24">
-        <v>7.422506397286952</v>
+        <v>0.2378904294240414</v>
       </c>
       <c r="N24">
-        <v>0.3020610653695286</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>7.413583308055593</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3167583271347212</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2811793093094508</v>
+        <v>0.1940827116257253</v>
       </c>
       <c r="D25">
-        <v>0.05592073153469101</v>
+        <v>0.06886341153180098</v>
       </c>
       <c r="E25">
-        <v>0.1935193118918903</v>
+        <v>0.1744564951218663</v>
       </c>
       <c r="F25">
-        <v>0.8649685549190878</v>
+        <v>0.6811040349418249</v>
       </c>
       <c r="G25">
-        <v>0.7708460911846799</v>
+        <v>0.5636962587609702</v>
       </c>
       <c r="H25">
-        <v>0.000110526374088149</v>
+        <v>0.0001408963589724088</v>
       </c>
       <c r="I25">
-        <v>0.001633520312875447</v>
+        <v>0.001990304077731153</v>
       </c>
       <c r="J25">
-        <v>0.5264126125374418</v>
+        <v>0.448572218959896</v>
       </c>
       <c r="K25">
-        <v>0.8295712559634225</v>
+        <v>0.6231046343715363</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2768260419963227</v>
       </c>
       <c r="M25">
-        <v>6.089149317757858</v>
+        <v>0.1998762133177294</v>
       </c>
       <c r="N25">
-        <v>0.2506329298792025</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>6.088297932714738</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2642717251087561</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
